--- a/시장분석용_정보/시장분석용_4427039000.xlsx
+++ b/시장분석용_정보/시장분석용_4427039000.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="48">
-  <si>
-    <t>중첩매칭</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="79">
+  <si>
+    <t>중복체크</t>
+  </si>
+  <si>
+    <t>sim_cd</t>
+  </si>
+  <si>
+    <t>place</t>
   </si>
   <si>
     <t>TA_YM</t>
@@ -25,19 +31,16 @@
     <t>year</t>
   </si>
   <si>
-    <t>MCT_NO</t>
-  </si>
-  <si>
     <t>MCT_BRN</t>
   </si>
   <si>
     <t>MCT_NM</t>
   </si>
   <si>
-    <t>GDS_AF_MCT_AR2</t>
-  </si>
-  <si>
-    <t>sim_cd</t>
+    <t>address</t>
+  </si>
+  <si>
+    <t>hdong_code</t>
   </si>
   <si>
     <t>area</t>
@@ -46,9 +49,6 @@
     <t>hos_type</t>
   </si>
   <si>
-    <t>hdong_code</t>
-  </si>
-  <si>
     <t>EST_HGA</t>
   </si>
   <si>
@@ -58,6 +58,54 @@
     <t>AVG_AMT</t>
   </si>
   <si>
+    <t>WK_RT</t>
+  </si>
+  <si>
+    <t>WE_RT</t>
+  </si>
+  <si>
+    <t>WK_1_RT</t>
+  </si>
+  <si>
+    <t>WK_2_RT</t>
+  </si>
+  <si>
+    <t>WK_3_RT</t>
+  </si>
+  <si>
+    <t>WK_4_RT</t>
+  </si>
+  <si>
+    <t>WK_5_RT</t>
+  </si>
+  <si>
+    <t>WK_6_RT</t>
+  </si>
+  <si>
+    <t>WK_7_RT</t>
+  </si>
+  <si>
+    <t>TIME_0510_RT</t>
+  </si>
+  <si>
+    <t>TIME_1114_RT</t>
+  </si>
+  <si>
+    <t>TIME_1517_RT</t>
+  </si>
+  <si>
+    <t>TIME_1819_RT</t>
+  </si>
+  <si>
+    <t>TIME_2021_RT</t>
+  </si>
+  <si>
+    <t>TIME_2224_RT</t>
+  </si>
+  <si>
+    <t>TIME_0104_RT</t>
+  </si>
+  <si>
     <t>F20_RT</t>
   </si>
   <si>
@@ -112,6 +160,48 @@
     <t>IC_1099_RT</t>
   </si>
   <si>
+    <t>LIFE_01_RT</t>
+  </si>
+  <si>
+    <t>LIFE_02_RT</t>
+  </si>
+  <si>
+    <t>LIFE_03_RT</t>
+  </si>
+  <si>
+    <t>LIFE_04_RT</t>
+  </si>
+  <si>
+    <t>LIFE_05_RT</t>
+  </si>
+  <si>
+    <t>LIFE_06_RT</t>
+  </si>
+  <si>
+    <t>FTJB_HUWF_RT</t>
+  </si>
+  <si>
+    <t>STUD_RT</t>
+  </si>
+  <si>
+    <t>SCTY_EAR_H_RT</t>
+  </si>
+  <si>
+    <t>GDS_01_RT</t>
+  </si>
+  <si>
+    <t>GDS_02_RT</t>
+  </si>
+  <si>
+    <t>GDS_03_RT</t>
+  </si>
+  <si>
+    <t>REVISIT_RT</t>
+  </si>
+  <si>
+    <t>FREQ_RT</t>
+  </si>
+  <si>
     <t>202106 5444900659</t>
   </si>
   <si>
@@ -148,13 +238,16 @@
     <t>202205 5444900659</t>
   </si>
   <si>
+    <t>JDQ4MTYyMiM2MSMkMSMkMiMkNzIkMzgxMTkxIzExIyQxIyQzIyQwMyQ0NjEwMDIjODEjJDEjJDYjJDgz</t>
+  </si>
+  <si>
+    <t>충청남도</t>
+  </si>
+  <si>
     <t>플란치과의원</t>
   </si>
   <si>
-    <t>충청남도 당진시 송산면 유곡3길 6 2층</t>
-  </si>
-  <si>
-    <t>JDQ4MTYyMiM2MSMkMSMkMiMkNzIkMzgxMTkxIzExIyQxIyQzIyQwMyQ0NjEwMDIjODEjJDEjJDYjJDgz</t>
+    <t>충청남도 당진시 송산면 유곡3길 6 ()</t>
   </si>
   <si>
     <t>치과</t>
@@ -515,13 +608,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG13"/>
+  <dimension ref="A1:BK13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:63">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -618,43 +711,133 @@
       <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:63">
       <c r="A2" s="1">
-        <v>390855</v>
+        <v>30416</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2">
         <v>202106</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>2021</v>
       </c>
-      <c r="E2">
-        <v>123292021</v>
-      </c>
-      <c r="F2">
+      <c r="G2">
         <v>5444900659</v>
       </c>
-      <c r="G2" t="s">
-        <v>44</v>
-      </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="J2">
+        <v>4427039000</v>
+      </c>
+      <c r="K2">
         <v>56.96969696969698</v>
       </c>
-      <c r="K2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2">
-        <v>4427039000</v>
+      <c r="L2" t="s">
+        <v>78</v>
       </c>
       <c r="M2">
         <v>24195331</v>
@@ -666,96 +849,186 @@
         <v>115354</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>39</v>
+      </c>
+      <c r="T2">
+        <v>48.45</v>
+      </c>
+      <c r="U2">
+        <v>1.54</v>
+      </c>
+      <c r="V2">
+        <v>7.95</v>
+      </c>
+      <c r="W2">
+        <v>3.06</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>1.03</v>
+      </c>
+      <c r="Z2">
+        <v>25.52</v>
+      </c>
+      <c r="AA2">
+        <v>55.6</v>
+      </c>
+      <c r="AB2">
+        <v>17.84</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
         <v>0.33</v>
       </c>
-      <c r="S2">
+      <c r="AI2">
         <v>11.67</v>
       </c>
-      <c r="T2">
+      <c r="AJ2">
         <v>22.23</v>
       </c>
-      <c r="U2">
+      <c r="AK2">
         <v>4.36</v>
       </c>
-      <c r="V2">
+      <c r="AL2">
         <v>5.54</v>
       </c>
-      <c r="W2">
+      <c r="AM2">
         <v>50.04</v>
       </c>
-      <c r="X2">
+      <c r="AN2">
         <v>3.95</v>
       </c>
-      <c r="Y2">
+      <c r="AO2">
         <v>1.88</v>
       </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
         <v>1.85</v>
       </c>
-      <c r="AD2">
+      <c r="AT2">
         <v>95</v>
       </c>
-      <c r="AE2">
+      <c r="AU2">
         <v>2.02</v>
       </c>
-      <c r="AF2">
+      <c r="AV2">
         <v>1.12</v>
       </c>
-      <c r="AG2">
-        <v>0</v>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>31.61</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="BA2">
+        <v>31.35</v>
+      </c>
+      <c r="BB2">
+        <v>13.61</v>
+      </c>
+      <c r="BC2">
+        <v>22.87</v>
+      </c>
+      <c r="BD2">
+        <v>0.55</v>
+      </c>
+      <c r="BE2">
+        <v>0.66</v>
+      </c>
+      <c r="BF2">
+        <v>7.62</v>
+      </c>
+      <c r="BG2">
+        <v>25.79</v>
+      </c>
+      <c r="BH2">
+        <v>92.59</v>
+      </c>
+      <c r="BI2">
+        <v>92.81</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>18.2</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:63">
       <c r="A3" s="1">
-        <v>412966</v>
+        <v>32146</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3">
         <v>202107</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>2021</v>
       </c>
-      <c r="E3">
-        <v>123292021</v>
-      </c>
-      <c r="F3">
+      <c r="G3">
         <v>5444900659</v>
       </c>
-      <c r="G3" t="s">
-        <v>44</v>
-      </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="J3">
+        <v>4427039000</v>
+      </c>
+      <c r="K3">
         <v>56.96969696969698</v>
       </c>
-      <c r="K3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3">
-        <v>4427039000</v>
+      <c r="L3" t="s">
+        <v>78</v>
       </c>
       <c r="M3">
         <v>91479155</v>
@@ -767,96 +1040,186 @@
         <v>194991</v>
       </c>
       <c r="P3">
+        <v>100</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>6.9</v>
+      </c>
+      <c r="T3">
+        <v>45.71</v>
+      </c>
+      <c r="U3">
+        <v>10.52</v>
+      </c>
+      <c r="V3">
+        <v>32.11</v>
+      </c>
+      <c r="W3">
+        <v>4.77</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>10.38</v>
+      </c>
+      <c r="Z3">
+        <v>8.01</v>
+      </c>
+      <c r="AA3">
+        <v>55.26</v>
+      </c>
+      <c r="AB3">
+        <v>26.35</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
         <v>0.5</v>
       </c>
-      <c r="Q3">
+      <c r="AG3">
         <v>1.39</v>
       </c>
-      <c r="R3">
+      <c r="AH3">
         <v>0.05</v>
       </c>
-      <c r="S3">
+      <c r="AI3">
         <v>6.39</v>
       </c>
-      <c r="T3">
+      <c r="AJ3">
         <v>5.53</v>
       </c>
-      <c r="U3">
+      <c r="AK3">
         <v>2.44</v>
       </c>
-      <c r="V3">
+      <c r="AL3">
         <v>11.65</v>
       </c>
-      <c r="W3">
+      <c r="AM3">
         <v>36.05</v>
       </c>
-      <c r="X3">
+      <c r="AN3">
         <v>27.59</v>
       </c>
-      <c r="Y3">
+      <c r="AO3">
         <v>8.42</v>
       </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
         <v>9.68</v>
       </c>
-      <c r="AD3">
+      <c r="AT3">
         <v>34.73</v>
       </c>
-      <c r="AE3">
+      <c r="AU3">
         <v>28.68</v>
       </c>
-      <c r="AF3">
+      <c r="AV3">
         <v>23.12</v>
       </c>
-      <c r="AG3">
+      <c r="AW3">
         <v>3.79</v>
       </c>
+      <c r="AX3">
+        <v>18.85</v>
+      </c>
+      <c r="AY3">
+        <v>11.44</v>
+      </c>
+      <c r="AZ3">
+        <v>2.55</v>
+      </c>
+      <c r="BA3">
+        <v>34.67</v>
+      </c>
+      <c r="BB3">
+        <v>31.88</v>
+      </c>
+      <c r="BC3">
+        <v>0.62</v>
+      </c>
+      <c r="BD3">
+        <v>3.52</v>
+      </c>
+      <c r="BE3">
+        <v>1.39</v>
+      </c>
+      <c r="BF3">
+        <v>1.63</v>
+      </c>
+      <c r="BG3">
+        <v>15.85</v>
+      </c>
+      <c r="BH3">
+        <v>62.96</v>
+      </c>
+      <c r="BI3">
+        <v>74.11</v>
+      </c>
+      <c r="BJ3">
+        <v>27.9</v>
+      </c>
+      <c r="BK3">
+        <v>34.4</v>
+      </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:63">
       <c r="A4" s="1">
-        <v>435113</v>
+        <v>33865</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4">
         <v>202108</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>2021</v>
       </c>
-      <c r="E4">
-        <v>123292021</v>
-      </c>
-      <c r="F4">
+      <c r="G4">
         <v>5444900659</v>
       </c>
-      <c r="G4" t="s">
-        <v>44</v>
-      </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="J4">
+        <v>4427039000</v>
+      </c>
+      <c r="K4">
         <v>56.96969696969698</v>
       </c>
-      <c r="K4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4">
-        <v>4427039000</v>
+      <c r="L4" t="s">
+        <v>78</v>
       </c>
       <c r="M4">
         <v>39238780</v>
@@ -868,96 +1231,186 @@
         <v>97553</v>
       </c>
       <c r="P4">
+        <v>92.29000000000001</v>
+      </c>
+      <c r="Q4">
+        <v>7.71</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>17.72</v>
+      </c>
+      <c r="T4">
+        <v>16.3</v>
+      </c>
+      <c r="U4">
+        <v>17.86</v>
+      </c>
+      <c r="V4">
+        <v>32.45</v>
+      </c>
+      <c r="W4">
+        <v>15.66</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>28.57</v>
+      </c>
+      <c r="Z4">
+        <v>18.73</v>
+      </c>
+      <c r="AA4">
+        <v>33.3</v>
+      </c>
+      <c r="AB4">
+        <v>19.4</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
         <v>17.74</v>
       </c>
-      <c r="Q4">
+      <c r="AG4">
         <v>4.29</v>
       </c>
-      <c r="R4">
+      <c r="AH4">
         <v>2.42</v>
       </c>
-      <c r="S4">
+      <c r="AI4">
         <v>1.49</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
         <v>0.61</v>
       </c>
-      <c r="V4">
+      <c r="AL4">
         <v>4.72</v>
       </c>
-      <c r="W4">
+      <c r="AM4">
         <v>28.62</v>
       </c>
-      <c r="X4">
+      <c r="AN4">
         <v>26.43</v>
       </c>
-      <c r="Y4">
+      <c r="AO4">
         <v>13.68</v>
       </c>
-      <c r="Z4">
+      <c r="AP4">
         <v>0.77</v>
       </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
         <v>14.98</v>
       </c>
-      <c r="AD4">
+      <c r="AT4">
         <v>29.22</v>
       </c>
-      <c r="AE4">
+      <c r="AU4">
         <v>14.39</v>
       </c>
-      <c r="AF4">
+      <c r="AV4">
         <v>28</v>
       </c>
-      <c r="AG4">
+      <c r="AW4">
         <v>12.64</v>
       </c>
+      <c r="AX4">
+        <v>23.46</v>
+      </c>
+      <c r="AY4">
+        <v>0.45</v>
+      </c>
+      <c r="AZ4">
+        <v>14.67</v>
+      </c>
+      <c r="BA4">
+        <v>43.62</v>
+      </c>
+      <c r="BB4">
+        <v>8.529999999999999</v>
+      </c>
+      <c r="BC4">
+        <v>9.26</v>
+      </c>
+      <c r="BD4">
+        <v>1</v>
+      </c>
+      <c r="BE4">
+        <v>17.83</v>
+      </c>
+      <c r="BF4">
+        <v>1.5</v>
+      </c>
+      <c r="BG4">
+        <v>34.03</v>
+      </c>
+      <c r="BH4">
+        <v>80.97</v>
+      </c>
+      <c r="BI4">
+        <v>93.61</v>
+      </c>
+      <c r="BJ4">
+        <v>21.3</v>
+      </c>
+      <c r="BK4">
+        <v>21.3</v>
+      </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:63">
       <c r="A5" s="1">
-        <v>457297</v>
+        <v>35594</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5">
         <v>202109</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>2021</v>
       </c>
-      <c r="E5">
-        <v>123292021</v>
-      </c>
-      <c r="F5">
+      <c r="G5">
         <v>5444900659</v>
       </c>
-      <c r="G5" t="s">
-        <v>44</v>
-      </c>
       <c r="H5" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="J5">
+        <v>4427039000</v>
+      </c>
+      <c r="K5">
         <v>56.96969696969698</v>
       </c>
-      <c r="K5" t="s">
-        <v>47</v>
-      </c>
-      <c r="L5">
-        <v>4427039000</v>
+      <c r="L5" t="s">
+        <v>78</v>
       </c>
       <c r="M5">
         <v>78770277</v>
@@ -969,96 +1422,186 @@
         <v>171957</v>
       </c>
       <c r="P5">
+        <v>100</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="T5">
+        <v>24.97</v>
+      </c>
+      <c r="U5">
+        <v>15.64</v>
+      </c>
+      <c r="V5">
+        <v>28.38</v>
+      </c>
+      <c r="W5">
+        <v>21.88</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>10.94</v>
+      </c>
+      <c r="Z5">
+        <v>12.94</v>
+      </c>
+      <c r="AA5">
+        <v>47.82</v>
+      </c>
+      <c r="AB5">
+        <v>24.33</v>
+      </c>
+      <c r="AC5">
+        <v>3.97</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
         <v>0.16</v>
       </c>
-      <c r="Q5">
+      <c r="AG5">
         <v>0.16</v>
       </c>
-      <c r="R5">
+      <c r="AH5">
         <v>11.14</v>
       </c>
-      <c r="S5">
+      <c r="AI5">
         <v>19.98</v>
       </c>
-      <c r="T5">
+      <c r="AJ5">
         <v>0.08</v>
       </c>
-      <c r="U5">
+      <c r="AK5">
         <v>3.97</v>
       </c>
-      <c r="V5">
+      <c r="AL5">
         <v>4.5</v>
       </c>
-      <c r="W5">
+      <c r="AM5">
         <v>27.88</v>
       </c>
-      <c r="X5">
+      <c r="AN5">
         <v>15.73</v>
       </c>
-      <c r="Y5">
+      <c r="AO5">
         <v>16.41</v>
       </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
         <v>10.47</v>
       </c>
-      <c r="AD5">
+      <c r="AT5">
         <v>66.08</v>
       </c>
-      <c r="AE5">
+      <c r="AU5">
         <v>9.17</v>
       </c>
-      <c r="AF5">
+      <c r="AV5">
         <v>10.91</v>
       </c>
-      <c r="AG5">
+      <c r="AW5">
         <v>3.37</v>
       </c>
+      <c r="AX5">
+        <v>20.61</v>
+      </c>
+      <c r="AY5">
+        <v>16.85</v>
+      </c>
+      <c r="AZ5">
+        <v>12.04</v>
+      </c>
+      <c r="BA5">
+        <v>16.85</v>
+      </c>
+      <c r="BB5">
+        <v>33.12</v>
+      </c>
+      <c r="BC5">
+        <v>0.53</v>
+      </c>
+      <c r="BD5">
+        <v>0.22</v>
+      </c>
+      <c r="BE5">
+        <v>2.38</v>
+      </c>
+      <c r="BF5">
+        <v>4.05</v>
+      </c>
+      <c r="BG5">
+        <v>26.53</v>
+      </c>
+      <c r="BH5">
+        <v>66.43000000000001</v>
+      </c>
+      <c r="BI5">
+        <v>80.41</v>
+      </c>
+      <c r="BJ5">
+        <v>31.7</v>
+      </c>
+      <c r="BK5">
+        <v>30.2</v>
+      </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:63">
       <c r="A6" s="1">
-        <v>479567</v>
+        <v>37320</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6">
         <v>202110</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>2021</v>
       </c>
-      <c r="E6">
-        <v>123292021</v>
-      </c>
-      <c r="F6">
+      <c r="G6">
         <v>5444900659</v>
       </c>
-      <c r="G6" t="s">
-        <v>44</v>
-      </c>
       <c r="H6" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="J6">
+        <v>4427039000</v>
+      </c>
+      <c r="K6">
         <v>56.96969696969698</v>
       </c>
-      <c r="K6" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6">
-        <v>4427039000</v>
+      <c r="L6" t="s">
+        <v>78</v>
       </c>
       <c r="M6">
         <v>126559549</v>
@@ -1070,96 +1613,186 @@
         <v>230483</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>96.59</v>
       </c>
       <c r="Q6">
+        <v>3.41</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>26.36</v>
+      </c>
+      <c r="T6">
+        <v>4.93</v>
+      </c>
+      <c r="U6">
+        <v>15.34</v>
+      </c>
+      <c r="V6">
+        <v>38.06</v>
+      </c>
+      <c r="W6">
+        <v>15.31</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>23.37</v>
+      </c>
+      <c r="Z6">
+        <v>19.39</v>
+      </c>
+      <c r="AA6">
+        <v>27.73</v>
+      </c>
+      <c r="AB6">
+        <v>29.5</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
         <v>0.31</v>
       </c>
-      <c r="R6">
+      <c r="AH6">
         <v>8.9</v>
       </c>
-      <c r="S6">
+      <c r="AI6">
         <v>6.62</v>
       </c>
-      <c r="T6">
+      <c r="AJ6">
         <v>8.890000000000001</v>
       </c>
-      <c r="U6">
+      <c r="AK6">
         <v>3.1</v>
       </c>
-      <c r="V6">
+      <c r="AL6">
         <v>3.49</v>
       </c>
-      <c r="W6">
+      <c r="AM6">
         <v>9.470000000000001</v>
       </c>
-      <c r="X6">
+      <c r="AN6">
         <v>43.26</v>
       </c>
-      <c r="Y6">
+      <c r="AO6">
         <v>15.97</v>
       </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
         <v>12.8</v>
       </c>
-      <c r="AD6">
+      <c r="AT6">
         <v>68.36</v>
       </c>
-      <c r="AE6">
+      <c r="AU6">
         <v>3.42</v>
       </c>
-      <c r="AF6">
+      <c r="AV6">
         <v>14.98</v>
       </c>
-      <c r="AG6">
+      <c r="AW6">
         <v>0.44</v>
       </c>
+      <c r="AX6">
+        <v>15.97</v>
+      </c>
+      <c r="AY6">
+        <v>0.38</v>
+      </c>
+      <c r="AZ6">
+        <v>1.62</v>
+      </c>
+      <c r="BA6">
+        <v>32.71</v>
+      </c>
+      <c r="BB6">
+        <v>42.43</v>
+      </c>
+      <c r="BC6">
+        <v>6.9</v>
+      </c>
+      <c r="BD6">
+        <v>0.09</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>2.38</v>
+      </c>
+      <c r="BG6">
+        <v>11.2</v>
+      </c>
+      <c r="BH6">
+        <v>71.48999999999999</v>
+      </c>
+      <c r="BI6">
+        <v>73.69</v>
+      </c>
+      <c r="BJ6">
+        <v>28.6</v>
+      </c>
+      <c r="BK6">
+        <v>22.1</v>
+      </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:63">
       <c r="A7" s="1">
-        <v>501848</v>
+        <v>39051</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7">
         <v>202111</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>2021</v>
       </c>
-      <c r="E7">
-        <v>123292021</v>
-      </c>
-      <c r="F7">
+      <c r="G7">
         <v>5444900659</v>
       </c>
-      <c r="G7" t="s">
-        <v>44</v>
-      </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="J7">
+        <v>4427039000</v>
+      </c>
+      <c r="K7">
         <v>56.96969696969698</v>
       </c>
-      <c r="K7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7">
-        <v>4427039000</v>
+      <c r="L7" t="s">
+        <v>78</v>
       </c>
       <c r="M7">
         <v>89057529</v>
@@ -1171,96 +1804,186 @@
         <v>176241</v>
       </c>
       <c r="P7">
+        <v>100</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>34.28</v>
+      </c>
+      <c r="T7">
+        <v>18.73</v>
+      </c>
+      <c r="U7">
+        <v>11.82</v>
+      </c>
+      <c r="V7">
+        <v>11.76</v>
+      </c>
+      <c r="W7">
+        <v>23.41</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>5.78</v>
+      </c>
+      <c r="Z7">
+        <v>24.71</v>
+      </c>
+      <c r="AA7">
+        <v>42.72</v>
+      </c>
+      <c r="AB7">
+        <v>26.79</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
         <v>3.06</v>
       </c>
-      <c r="Q7">
+      <c r="AG7">
         <v>5.38</v>
       </c>
-      <c r="R7">
+      <c r="AH7">
         <v>9.74</v>
       </c>
-      <c r="S7">
+      <c r="AI7">
         <v>13.24</v>
       </c>
-      <c r="T7">
+      <c r="AJ7">
         <v>0.3</v>
       </c>
-      <c r="U7">
+      <c r="AK7">
         <v>0.15</v>
       </c>
-      <c r="V7">
+      <c r="AL7">
         <v>8.08</v>
       </c>
-      <c r="W7">
+      <c r="AM7">
         <v>30.05</v>
       </c>
-      <c r="X7">
+      <c r="AN7">
         <v>26.25</v>
       </c>
-      <c r="Y7">
+      <c r="AO7">
         <v>3.75</v>
       </c>
-      <c r="Z7">
+      <c r="AP7">
         <v>0.15</v>
       </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
         <v>3.27</v>
       </c>
-      <c r="AD7">
+      <c r="AT7">
         <v>73.43000000000001</v>
       </c>
-      <c r="AE7">
+      <c r="AU7">
         <v>12.11</v>
       </c>
-      <c r="AF7">
+      <c r="AV7">
         <v>7.17</v>
       </c>
-      <c r="AG7">
+      <c r="AW7">
         <v>3.87</v>
       </c>
+      <c r="AX7">
+        <v>17.21</v>
+      </c>
+      <c r="AY7">
+        <v>14.44</v>
+      </c>
+      <c r="AZ7">
+        <v>5.8</v>
+      </c>
+      <c r="BA7">
+        <v>37.98</v>
+      </c>
+      <c r="BB7">
+        <v>24.28</v>
+      </c>
+      <c r="BC7">
+        <v>0.29</v>
+      </c>
+      <c r="BD7">
+        <v>0.21</v>
+      </c>
+      <c r="BE7">
+        <v>0.02</v>
+      </c>
+      <c r="BF7">
+        <v>3.89</v>
+      </c>
+      <c r="BG7">
+        <v>7.75</v>
+      </c>
+      <c r="BH7">
+        <v>59.4</v>
+      </c>
+      <c r="BI7">
+        <v>59.45</v>
+      </c>
+      <c r="BJ7">
+        <v>25.4</v>
+      </c>
+      <c r="BK7">
+        <v>23.9</v>
+      </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:63">
       <c r="A8" s="1">
-        <v>524171</v>
+        <v>40780</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8">
         <v>202112</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>2021</v>
       </c>
-      <c r="E8">
-        <v>123292021</v>
-      </c>
-      <c r="F8">
+      <c r="G8">
         <v>5444900659</v>
       </c>
-      <c r="G8" t="s">
-        <v>44</v>
-      </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="J8">
+        <v>4427039000</v>
+      </c>
+      <c r="K8">
         <v>56.96969696969698</v>
       </c>
-      <c r="K8" t="s">
-        <v>47</v>
-      </c>
-      <c r="L8">
-        <v>4427039000</v>
+      <c r="L8" t="s">
+        <v>78</v>
       </c>
       <c r="M8">
         <v>45969119</v>
@@ -1272,96 +1995,186 @@
         <v>76002</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>13.52</v>
+      </c>
+      <c r="T8">
+        <v>11.63</v>
+      </c>
+      <c r="U8">
+        <v>25.31</v>
+      </c>
+      <c r="V8">
+        <v>30.12</v>
+      </c>
+      <c r="W8">
+        <v>19.43</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>13.2</v>
+      </c>
+      <c r="Z8">
+        <v>29.23</v>
+      </c>
+      <c r="AA8">
+        <v>35.51</v>
+      </c>
+      <c r="AB8">
+        <v>22.05</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
         <v>4.33</v>
       </c>
-      <c r="R8">
+      <c r="AH8">
         <v>3.57</v>
       </c>
-      <c r="S8">
+      <c r="AI8">
         <v>2.74</v>
       </c>
-      <c r="T8">
+      <c r="AJ8">
         <v>9.220000000000001</v>
       </c>
-      <c r="U8">
+      <c r="AK8">
         <v>1.4</v>
       </c>
-      <c r="V8">
+      <c r="AL8">
         <v>1.75</v>
       </c>
-      <c r="W8">
+      <c r="AM8">
         <v>31.06</v>
       </c>
-      <c r="X8">
+      <c r="AN8">
         <v>39.38</v>
       </c>
-      <c r="Y8">
+      <c r="AO8">
         <v>6.56</v>
       </c>
-      <c r="Z8">
+      <c r="AP8">
         <v>1.37</v>
       </c>
-      <c r="AA8">
+      <c r="AQ8">
         <v>0.13</v>
       </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
         <v>6.74</v>
       </c>
-      <c r="AD8">
+      <c r="AT8">
         <v>34.14</v>
       </c>
-      <c r="AE8">
+      <c r="AU8">
         <v>18.97</v>
       </c>
-      <c r="AF8">
+      <c r="AV8">
         <v>28.62</v>
       </c>
-      <c r="AG8">
+      <c r="AW8">
         <v>10.03</v>
       </c>
+      <c r="AX8">
+        <v>11.18</v>
+      </c>
+      <c r="AY8">
+        <v>0.23</v>
+      </c>
+      <c r="AZ8">
+        <v>5.79</v>
+      </c>
+      <c r="BA8">
+        <v>57.42</v>
+      </c>
+      <c r="BB8">
+        <v>14.92</v>
+      </c>
+      <c r="BC8">
+        <v>10.45</v>
+      </c>
+      <c r="BD8">
+        <v>0.58</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>1.63</v>
+      </c>
+      <c r="BG8">
+        <v>11.2</v>
+      </c>
+      <c r="BH8">
+        <v>67.91</v>
+      </c>
+      <c r="BI8">
+        <v>67.91</v>
+      </c>
+      <c r="BJ8">
+        <v>29.3</v>
+      </c>
+      <c r="BK8">
+        <v>24.4</v>
+      </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:63">
       <c r="A9" s="1">
-        <v>546445</v>
+        <v>42494</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9">
         <v>202201</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>2022</v>
       </c>
-      <c r="E9">
-        <v>123292021</v>
-      </c>
-      <c r="F9">
+      <c r="G9">
         <v>5444900659</v>
       </c>
-      <c r="G9" t="s">
-        <v>44</v>
-      </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="J9">
+        <v>4427039000</v>
+      </c>
+      <c r="K9">
         <v>56.96969696969698</v>
       </c>
-      <c r="K9" t="s">
-        <v>47</v>
-      </c>
-      <c r="L9">
-        <v>4427039000</v>
+      <c r="L9" t="s">
+        <v>78</v>
       </c>
       <c r="M9">
         <v>64375295</v>
@@ -1373,96 +2186,186 @@
         <v>142141</v>
       </c>
       <c r="P9">
+        <v>100</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.91</v>
+      </c>
+      <c r="T9">
+        <v>41.45</v>
+      </c>
+      <c r="U9">
+        <v>29.98</v>
+      </c>
+      <c r="V9">
+        <v>11.81</v>
+      </c>
+      <c r="W9">
+        <v>14.86</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>4.11</v>
+      </c>
+      <c r="Z9">
+        <v>34.13</v>
+      </c>
+      <c r="AA9">
+        <v>49.68</v>
+      </c>
+      <c r="AB9">
+        <v>11.76</v>
+      </c>
+      <c r="AC9">
+        <v>0.32</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
         <v>4.02</v>
       </c>
-      <c r="Q9">
+      <c r="AG9">
         <v>0.04</v>
       </c>
-      <c r="R9">
+      <c r="AH9">
         <v>8.380000000000001</v>
       </c>
-      <c r="S9">
+      <c r="AI9">
         <v>8.640000000000001</v>
       </c>
-      <c r="T9">
+      <c r="AJ9">
         <v>2.66</v>
       </c>
-      <c r="U9">
+      <c r="AK9">
         <v>0.59</v>
       </c>
-      <c r="V9">
+      <c r="AL9">
         <v>3.58</v>
       </c>
-      <c r="W9">
+      <c r="AM9">
         <v>4.82</v>
       </c>
-      <c r="X9">
+      <c r="AN9">
         <v>38.43</v>
       </c>
-      <c r="Y9">
+      <c r="AO9">
         <v>28.84</v>
       </c>
-      <c r="Z9">
+      <c r="AP9">
         <v>8.880000000000001</v>
       </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
         <v>5.06</v>
       </c>
-      <c r="AD9">
+      <c r="AT9">
         <v>51.61</v>
       </c>
-      <c r="AE9">
+      <c r="AU9">
         <v>26.26</v>
       </c>
-      <c r="AF9">
+      <c r="AV9">
         <v>1.36</v>
       </c>
-      <c r="AG9">
+      <c r="AW9">
         <v>6.83</v>
       </c>
+      <c r="AX9">
+        <v>9.24</v>
+      </c>
+      <c r="AY9">
+        <v>0.13</v>
+      </c>
+      <c r="AZ9">
+        <v>0.98</v>
+      </c>
+      <c r="BA9">
+        <v>45.53</v>
+      </c>
+      <c r="BB9">
+        <v>38.23</v>
+      </c>
+      <c r="BC9">
+        <v>5.89</v>
+      </c>
+      <c r="BD9">
+        <v>1.83</v>
+      </c>
+      <c r="BE9">
+        <v>4.02</v>
+      </c>
+      <c r="BF9">
+        <v>2.92</v>
+      </c>
+      <c r="BG9">
+        <v>22.37</v>
+      </c>
+      <c r="BH9">
+        <v>72.47</v>
+      </c>
+      <c r="BI9">
+        <v>76.65000000000001</v>
+      </c>
+      <c r="BJ9">
+        <v>36.8</v>
+      </c>
+      <c r="BK9">
+        <v>31.6</v>
+      </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:63">
       <c r="A10" s="1">
-        <v>568735</v>
+        <v>44217</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10">
         <v>202202</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>2022</v>
       </c>
-      <c r="E10">
-        <v>123292021</v>
-      </c>
-      <c r="F10">
+      <c r="G10">
         <v>5444900659</v>
       </c>
-      <c r="G10" t="s">
-        <v>44</v>
-      </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="J10">
+        <v>4427039000</v>
+      </c>
+      <c r="K10">
         <v>56.96969696969698</v>
       </c>
-      <c r="K10" t="s">
-        <v>47</v>
-      </c>
-      <c r="L10">
-        <v>4427039000</v>
+      <c r="L10" t="s">
+        <v>78</v>
       </c>
       <c r="M10">
         <v>45611519</v>
@@ -1474,96 +2377,186 @@
         <v>123678</v>
       </c>
       <c r="P10">
+        <v>100</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>24.15</v>
+      </c>
+      <c r="T10">
+        <v>12.88</v>
+      </c>
+      <c r="U10">
+        <v>0.67</v>
+      </c>
+      <c r="V10">
+        <v>42.4</v>
+      </c>
+      <c r="W10">
+        <v>19.9</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>14.07</v>
+      </c>
+      <c r="Z10">
+        <v>19.63</v>
+      </c>
+      <c r="AA10">
+        <v>38.54</v>
+      </c>
+      <c r="AB10">
+        <v>27.76</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
         <v>0.24</v>
       </c>
-      <c r="Q10">
+      <c r="AG10">
         <v>0.24</v>
       </c>
-      <c r="R10">
+      <c r="AH10">
         <v>0.46</v>
       </c>
-      <c r="S10">
+      <c r="AI10">
         <v>6.14</v>
       </c>
-      <c r="T10">
+      <c r="AJ10">
         <v>11.83</v>
       </c>
-      <c r="U10">
+      <c r="AK10">
         <v>5.82</v>
       </c>
-      <c r="V10">
+      <c r="AL10">
         <v>14.07</v>
       </c>
-      <c r="W10">
+      <c r="AM10">
         <v>27.43</v>
       </c>
-      <c r="X10">
+      <c r="AN10">
         <v>8.789999999999999</v>
       </c>
-      <c r="Y10">
+      <c r="AO10">
         <v>24.98</v>
       </c>
-      <c r="Z10">
+      <c r="AP10">
         <v>4.36</v>
       </c>
-      <c r="AA10">
+      <c r="AQ10">
         <v>0.02</v>
       </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
         <v>7.48</v>
       </c>
-      <c r="AD10">
+      <c r="AT10">
         <v>53.5</v>
       </c>
-      <c r="AE10">
+      <c r="AU10">
         <v>24.99</v>
       </c>
-      <c r="AF10">
+      <c r="AV10">
         <v>1.34</v>
       </c>
-      <c r="AG10">
+      <c r="AW10">
         <v>8.31</v>
       </c>
+      <c r="AX10">
+        <v>46.59</v>
+      </c>
+      <c r="AY10">
+        <v>11.96</v>
+      </c>
+      <c r="AZ10">
+        <v>1.77</v>
+      </c>
+      <c r="BA10">
+        <v>19.21</v>
+      </c>
+      <c r="BB10">
+        <v>20.45</v>
+      </c>
+      <c r="BC10">
+        <v>0.02</v>
+      </c>
+      <c r="BD10">
+        <v>3.21</v>
+      </c>
+      <c r="BE10">
+        <v>1.45</v>
+      </c>
+      <c r="BF10">
+        <v>14.54</v>
+      </c>
+      <c r="BG10">
+        <v>20.87</v>
+      </c>
+      <c r="BH10">
+        <v>58.13</v>
+      </c>
+      <c r="BI10">
+        <v>58.54</v>
+      </c>
+      <c r="BJ10">
+        <v>20.8</v>
+      </c>
+      <c r="BK10">
+        <v>18.9</v>
+      </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:63">
       <c r="A11" s="1">
-        <v>591096</v>
+        <v>45925</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11">
         <v>202203</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>2022</v>
       </c>
-      <c r="E11">
-        <v>123292021</v>
-      </c>
-      <c r="F11">
+      <c r="G11">
         <v>5444900659</v>
       </c>
-      <c r="G11" t="s">
-        <v>44</v>
-      </c>
       <c r="H11" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="J11">
+        <v>4427039000</v>
+      </c>
+      <c r="K11">
         <v>56.96969696969698</v>
       </c>
-      <c r="K11" t="s">
-        <v>47</v>
-      </c>
-      <c r="L11">
-        <v>4427039000</v>
+      <c r="L11" t="s">
+        <v>78</v>
       </c>
       <c r="M11">
         <v>87802392</v>
@@ -1575,96 +2568,186 @@
         <v>195002</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>20.47</v>
+      </c>
+      <c r="T11">
+        <v>11.31</v>
+      </c>
+      <c r="U11">
+        <v>37.78</v>
+      </c>
+      <c r="V11">
+        <v>25.09</v>
+      </c>
+      <c r="W11">
+        <v>5.36</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>15.32</v>
+      </c>
+      <c r="Z11">
+        <v>33.04</v>
+      </c>
+      <c r="AA11">
+        <v>21.31</v>
+      </c>
+      <c r="AB11">
+        <v>30.34</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
         <v>12.6</v>
       </c>
-      <c r="R11">
+      <c r="AH11">
         <v>0.31</v>
       </c>
-      <c r="S11">
+      <c r="AI11">
         <v>28.53</v>
       </c>
-      <c r="T11">
+      <c r="AJ11">
         <v>4.27</v>
       </c>
-      <c r="U11">
+      <c r="AK11">
         <v>0.22</v>
       </c>
-      <c r="V11">
+      <c r="AL11">
         <v>3.43</v>
       </c>
-      <c r="W11">
+      <c r="AM11">
         <v>14.82</v>
       </c>
-      <c r="X11">
+      <c r="AN11">
         <v>8.960000000000001</v>
       </c>
-      <c r="Y11">
+      <c r="AO11">
         <v>26.86</v>
       </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
         <v>9.050000000000001</v>
       </c>
-      <c r="AD11">
+      <c r="AT11">
         <v>70.66</v>
       </c>
-      <c r="AE11">
+      <c r="AU11">
         <v>12.02</v>
       </c>
-      <c r="AF11">
+      <c r="AV11">
         <v>2.76</v>
       </c>
-      <c r="AG11">
+      <c r="AW11">
         <v>5.5</v>
       </c>
+      <c r="AX11">
+        <v>27.26</v>
+      </c>
+      <c r="AY11">
+        <v>0.31</v>
+      </c>
+      <c r="AZ11">
+        <v>6.94</v>
+      </c>
+      <c r="BA11">
+        <v>24.21</v>
+      </c>
+      <c r="BB11">
+        <v>30.41</v>
+      </c>
+      <c r="BC11">
+        <v>10.86</v>
+      </c>
+      <c r="BD11">
+        <v>9.42</v>
+      </c>
+      <c r="BE11">
+        <v>0.12</v>
+      </c>
+      <c r="BF11">
+        <v>2.83</v>
+      </c>
+      <c r="BG11">
+        <v>20.54</v>
+      </c>
+      <c r="BH11">
+        <v>47.57</v>
+      </c>
+      <c r="BI11">
+        <v>49.08</v>
+      </c>
+      <c r="BJ11">
+        <v>18.8</v>
+      </c>
+      <c r="BK11">
+        <v>17.2</v>
+      </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:63">
       <c r="A12" s="1">
-        <v>613503</v>
+        <v>47646</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12">
         <v>202204</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>2022</v>
       </c>
-      <c r="E12">
-        <v>123292021</v>
-      </c>
-      <c r="F12">
+      <c r="G12">
         <v>5444900659</v>
       </c>
-      <c r="G12" t="s">
-        <v>44</v>
-      </c>
       <c r="H12" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="J12">
+        <v>4427039000</v>
+      </c>
+      <c r="K12">
         <v>56.96969696969698</v>
       </c>
-      <c r="K12" t="s">
-        <v>47</v>
-      </c>
-      <c r="L12">
-        <v>4427039000</v>
+      <c r="L12" t="s">
+        <v>78</v>
       </c>
       <c r="M12">
         <v>53263895</v>
@@ -1676,96 +2759,186 @@
         <v>100382</v>
       </c>
       <c r="P12">
+        <v>100</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>26.99</v>
+      </c>
+      <c r="T12">
+        <v>19.56</v>
+      </c>
+      <c r="U12">
+        <v>12.32</v>
+      </c>
+      <c r="V12">
+        <v>33.54</v>
+      </c>
+      <c r="W12">
+        <v>7.58</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>36.57</v>
+      </c>
+      <c r="Z12">
+        <v>12.67</v>
+      </c>
+      <c r="AA12">
+        <v>45.53</v>
+      </c>
+      <c r="AB12">
+        <v>5.24</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
         <v>3.02</v>
       </c>
-      <c r="Q12">
+      <c r="AG12">
         <v>0.08</v>
       </c>
-      <c r="R12">
+      <c r="AH12">
         <v>0.23</v>
       </c>
-      <c r="S12">
+      <c r="AI12">
         <v>21.57</v>
       </c>
-      <c r="T12">
+      <c r="AJ12">
         <v>0.37</v>
       </c>
-      <c r="U12">
+      <c r="AK12">
         <v>0.21</v>
       </c>
-      <c r="V12">
+      <c r="AL12">
         <v>2.08</v>
       </c>
-      <c r="W12">
+      <c r="AM12">
         <v>17.93</v>
       </c>
-      <c r="X12">
+      <c r="AN12">
         <v>42.34</v>
       </c>
-      <c r="Y12">
+      <c r="AO12">
         <v>12.19</v>
       </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
         <v>1.23</v>
       </c>
-      <c r="AD12">
+      <c r="AT12">
         <v>36.13</v>
       </c>
-      <c r="AE12">
+      <c r="AU12">
         <v>31.05</v>
       </c>
-      <c r="AF12">
+      <c r="AV12">
         <v>4.34</v>
       </c>
-      <c r="AG12">
+      <c r="AW12">
         <v>27.24</v>
       </c>
+      <c r="AX12">
+        <v>19.63</v>
+      </c>
+      <c r="AY12">
+        <v>0.09</v>
+      </c>
+      <c r="AZ12">
+        <v>1.26</v>
+      </c>
+      <c r="BA12">
+        <v>57.51</v>
+      </c>
+      <c r="BB12">
+        <v>15.47</v>
+      </c>
+      <c r="BC12">
+        <v>6.04</v>
+      </c>
+      <c r="BD12">
+        <v>0.19</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>3.62</v>
+      </c>
+      <c r="BG12">
+        <v>36.57</v>
+      </c>
+      <c r="BH12">
+        <v>77.8</v>
+      </c>
+      <c r="BI12">
+        <v>84.02</v>
+      </c>
+      <c r="BJ12">
+        <v>35.7</v>
+      </c>
+      <c r="BK12">
+        <v>22.9</v>
+      </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:63">
       <c r="A13" s="1">
-        <v>635869</v>
+        <v>49372</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13">
         <v>202205</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>2022</v>
       </c>
-      <c r="E13">
-        <v>123292021</v>
-      </c>
-      <c r="F13">
+      <c r="G13">
         <v>5444900659</v>
       </c>
-      <c r="G13" t="s">
-        <v>44</v>
-      </c>
       <c r="H13" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="J13">
+        <v>4427039000</v>
+      </c>
+      <c r="K13">
         <v>56.96969696969698</v>
       </c>
-      <c r="K13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L13">
-        <v>4427039000</v>
+      <c r="L13" t="s">
+        <v>78</v>
       </c>
       <c r="M13">
         <v>55744424</v>
@@ -1777,58 +2950,148 @@
         <v>137659</v>
       </c>
       <c r="P13">
+        <v>100</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>56.83</v>
+      </c>
+      <c r="T13">
+        <v>27.79</v>
+      </c>
+      <c r="U13">
+        <v>10.87</v>
+      </c>
+      <c r="V13">
+        <v>1.86</v>
+      </c>
+      <c r="W13">
+        <v>2.65</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>2.17</v>
+      </c>
+      <c r="Z13">
+        <v>58.72</v>
+      </c>
+      <c r="AA13">
+        <v>26.06</v>
+      </c>
+      <c r="AB13">
+        <v>13.05</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
         <v>0.19</v>
       </c>
-      <c r="Q13">
+      <c r="AG13">
         <v>0.19</v>
       </c>
-      <c r="R13">
+      <c r="AH13">
         <v>9.199999999999999</v>
       </c>
-      <c r="S13">
+      <c r="AI13">
         <v>3.07</v>
       </c>
-      <c r="T13">
+      <c r="AJ13">
         <v>2.89</v>
       </c>
-      <c r="U13">
+      <c r="AK13">
         <v>0.42</v>
       </c>
-      <c r="V13">
+      <c r="AL13">
         <v>10.56</v>
       </c>
-      <c r="W13">
+      <c r="AM13">
         <v>38.16</v>
       </c>
-      <c r="X13">
+      <c r="AN13">
         <v>6.34</v>
       </c>
-      <c r="Y13">
+      <c r="AO13">
         <v>28.99</v>
       </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
         <v>1.49</v>
       </c>
-      <c r="AD13">
+      <c r="AT13">
         <v>28.87</v>
       </c>
-      <c r="AE13">
+      <c r="AU13">
         <v>41.39</v>
       </c>
-      <c r="AF13">
+      <c r="AV13">
         <v>26.76</v>
       </c>
-      <c r="AG13">
+      <c r="AW13">
         <v>1.48</v>
+      </c>
+      <c r="AX13">
+        <v>4.78</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>32.02</v>
+      </c>
+      <c r="BA13">
+        <v>34.6</v>
+      </c>
+      <c r="BB13">
+        <v>7.62</v>
+      </c>
+      <c r="BC13">
+        <v>20.98</v>
+      </c>
+      <c r="BD13">
+        <v>0.59</v>
+      </c>
+      <c r="BE13">
+        <v>0.24</v>
+      </c>
+      <c r="BF13">
+        <v>3.57</v>
+      </c>
+      <c r="BG13">
+        <v>51.22</v>
+      </c>
+      <c r="BH13">
+        <v>64.64</v>
+      </c>
+      <c r="BI13">
+        <v>65.13</v>
+      </c>
+      <c r="BJ13">
+        <v>31.7</v>
+      </c>
+      <c r="BK13">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/시장분석용_정보/시장분석용_4427039000.xlsx
+++ b/시장분석용_정보/시장분석용_4427039000.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="79">
-  <si>
-    <t>중복체크</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="52">
   <si>
     <t>sim_cd</t>
   </si>
@@ -158,84 +155,6 @@
   </si>
   <si>
     <t>IC_1099_RT</t>
-  </si>
-  <si>
-    <t>LIFE_01_RT</t>
-  </si>
-  <si>
-    <t>LIFE_02_RT</t>
-  </si>
-  <si>
-    <t>LIFE_03_RT</t>
-  </si>
-  <si>
-    <t>LIFE_04_RT</t>
-  </si>
-  <si>
-    <t>LIFE_05_RT</t>
-  </si>
-  <si>
-    <t>LIFE_06_RT</t>
-  </si>
-  <si>
-    <t>FTJB_HUWF_RT</t>
-  </si>
-  <si>
-    <t>STUD_RT</t>
-  </si>
-  <si>
-    <t>SCTY_EAR_H_RT</t>
-  </si>
-  <si>
-    <t>GDS_01_RT</t>
-  </si>
-  <si>
-    <t>GDS_02_RT</t>
-  </si>
-  <si>
-    <t>GDS_03_RT</t>
-  </si>
-  <si>
-    <t>REVISIT_RT</t>
-  </si>
-  <si>
-    <t>FREQ_RT</t>
-  </si>
-  <si>
-    <t>202106 5444900659</t>
-  </si>
-  <si>
-    <t>202107 5444900659</t>
-  </si>
-  <si>
-    <t>202108 5444900659</t>
-  </si>
-  <si>
-    <t>202109 5444900659</t>
-  </si>
-  <si>
-    <t>202110 5444900659</t>
-  </si>
-  <si>
-    <t>202111 5444900659</t>
-  </si>
-  <si>
-    <t>202112 5444900659</t>
-  </si>
-  <si>
-    <t>202201 5444900659</t>
-  </si>
-  <si>
-    <t>202202 5444900659</t>
-  </si>
-  <si>
-    <t>202203 5444900659</t>
-  </si>
-  <si>
-    <t>202204 5444900659</t>
-  </si>
-  <si>
-    <t>202205 5444900659</t>
   </si>
   <si>
     <t>JDQ4MTYyMiM2MSMkMSMkMiMkNzIkMzgxMTkxIzExIyQxIyQzIyQwMyQ0NjEwMDIjODEjJDEjJDYjJDgz</t>
@@ -608,13 +527,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK13"/>
+  <dimension ref="A1:AV13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:63">
+    <row r="1" spans="1:48">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -756,136 +675,91 @@
       <c r="AV1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="2" spans="1:63">
+    <row r="2" spans="1:48">
       <c r="A2" s="1">
         <v>30416</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" t="s">
-        <v>75</v>
+        <v>48</v>
+      </c>
+      <c r="D2">
+        <v>202106</v>
       </c>
       <c r="E2">
-        <v>202106</v>
+        <v>2021</v>
       </c>
       <c r="F2">
-        <v>2021</v>
-      </c>
-      <c r="G2">
         <v>5444900659</v>
       </c>
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
       <c r="H2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I2" t="s">
-        <v>77</v>
+        <v>50</v>
+      </c>
+      <c r="I2">
+        <v>4427039000</v>
       </c>
       <c r="J2">
-        <v>4427039000</v>
-      </c>
-      <c r="K2">
         <v>56.96969696969698</v>
       </c>
-      <c r="L2" t="s">
-        <v>78</v>
+      <c r="K2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2">
+        <v>24195331</v>
       </c>
       <c r="M2">
-        <v>24195331</v>
+        <v>207</v>
       </c>
       <c r="N2">
-        <v>207</v>
+        <v>115354</v>
       </c>
       <c r="O2">
-        <v>115354</v>
+        <v>100</v>
       </c>
       <c r="P2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="S2">
-        <v>39</v>
+        <v>48.45</v>
       </c>
       <c r="T2">
-        <v>48.45</v>
+        <v>1.54</v>
       </c>
       <c r="U2">
-        <v>1.54</v>
+        <v>7.95</v>
       </c>
       <c r="V2">
-        <v>7.95</v>
+        <v>3.06</v>
       </c>
       <c r="W2">
-        <v>3.06</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="Y2">
-        <v>1.03</v>
+        <v>25.52</v>
       </c>
       <c r="Z2">
-        <v>25.52</v>
+        <v>55.6</v>
       </c>
       <c r="AA2">
-        <v>55.6</v>
+        <v>17.84</v>
       </c>
       <c r="AB2">
-        <v>17.84</v>
+        <v>0</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -900,31 +774,31 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AH2">
-        <v>0.33</v>
+        <v>11.67</v>
       </c>
       <c r="AI2">
-        <v>11.67</v>
+        <v>22.23</v>
       </c>
       <c r="AJ2">
-        <v>22.23</v>
+        <v>4.36</v>
       </c>
       <c r="AK2">
-        <v>4.36</v>
+        <v>5.54</v>
       </c>
       <c r="AL2">
-        <v>5.54</v>
+        <v>50.04</v>
       </c>
       <c r="AM2">
-        <v>50.04</v>
+        <v>3.95</v>
       </c>
       <c r="AN2">
-        <v>3.95</v>
+        <v>1.88</v>
       </c>
       <c r="AO2">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="AP2">
         <v>0</v>
@@ -933,150 +807,105 @@
         <v>0</v>
       </c>
       <c r="AR2">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AS2">
-        <v>1.85</v>
+        <v>95</v>
       </c>
       <c r="AT2">
-        <v>95</v>
+        <v>2.02</v>
       </c>
       <c r="AU2">
-        <v>2.02</v>
+        <v>1.12</v>
       </c>
       <c r="AV2">
-        <v>1.12</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>31.61</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="BA2">
-        <v>31.35</v>
-      </c>
-      <c r="BB2">
-        <v>13.61</v>
-      </c>
-      <c r="BC2">
-        <v>22.87</v>
-      </c>
-      <c r="BD2">
-        <v>0.55</v>
-      </c>
-      <c r="BE2">
-        <v>0.66</v>
-      </c>
-      <c r="BF2">
-        <v>7.62</v>
-      </c>
-      <c r="BG2">
-        <v>25.79</v>
-      </c>
-      <c r="BH2">
-        <v>92.59</v>
-      </c>
-      <c r="BI2">
-        <v>92.81</v>
-      </c>
-      <c r="BJ2">
-        <v>0</v>
-      </c>
-      <c r="BK2">
-        <v>18.2</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:63">
+    <row r="3" spans="1:48">
       <c r="A3" s="1">
         <v>32146</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" t="s">
-        <v>75</v>
+        <v>48</v>
+      </c>
+      <c r="D3">
+        <v>202107</v>
       </c>
       <c r="E3">
-        <v>202107</v>
+        <v>2021</v>
       </c>
       <c r="F3">
-        <v>2021</v>
-      </c>
-      <c r="G3">
         <v>5444900659</v>
       </c>
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
       <c r="H3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I3" t="s">
-        <v>77</v>
+        <v>50</v>
+      </c>
+      <c r="I3">
+        <v>4427039000</v>
       </c>
       <c r="J3">
-        <v>4427039000</v>
-      </c>
-      <c r="K3">
         <v>56.96969696969698</v>
       </c>
-      <c r="L3" t="s">
-        <v>78</v>
+      <c r="K3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3">
+        <v>91479155</v>
       </c>
       <c r="M3">
-        <v>91479155</v>
+        <v>482</v>
       </c>
       <c r="N3">
-        <v>482</v>
+        <v>194991</v>
       </c>
       <c r="O3">
-        <v>194991</v>
+        <v>100</v>
       </c>
       <c r="P3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="S3">
-        <v>6.9</v>
+        <v>45.71</v>
       </c>
       <c r="T3">
-        <v>45.71</v>
+        <v>10.52</v>
       </c>
       <c r="U3">
-        <v>10.52</v>
+        <v>32.11</v>
       </c>
       <c r="V3">
-        <v>32.11</v>
+        <v>4.77</v>
       </c>
       <c r="W3">
-        <v>4.77</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>10.38</v>
       </c>
       <c r="Y3">
-        <v>10.38</v>
+        <v>8.01</v>
       </c>
       <c r="Z3">
-        <v>8.01</v>
+        <v>55.26</v>
       </c>
       <c r="AA3">
-        <v>55.26</v>
+        <v>26.35</v>
       </c>
       <c r="AB3">
-        <v>26.35</v>
+        <v>0</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -1085,37 +914,37 @@
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF3">
-        <v>0.5</v>
+        <v>1.39</v>
       </c>
       <c r="AG3">
-        <v>1.39</v>
+        <v>0.05</v>
       </c>
       <c r="AH3">
-        <v>0.05</v>
+        <v>6.39</v>
       </c>
       <c r="AI3">
-        <v>6.39</v>
+        <v>5.53</v>
       </c>
       <c r="AJ3">
-        <v>5.53</v>
+        <v>2.44</v>
       </c>
       <c r="AK3">
-        <v>2.44</v>
+        <v>11.65</v>
       </c>
       <c r="AL3">
-        <v>11.65</v>
+        <v>36.05</v>
       </c>
       <c r="AM3">
-        <v>36.05</v>
+        <v>27.59</v>
       </c>
       <c r="AN3">
-        <v>27.59</v>
+        <v>8.42</v>
       </c>
       <c r="AO3">
-        <v>8.42</v>
+        <v>0</v>
       </c>
       <c r="AP3">
         <v>0</v>
@@ -1124,150 +953,105 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>0</v>
+        <v>9.68</v>
       </c>
       <c r="AS3">
-        <v>9.68</v>
+        <v>34.73</v>
       </c>
       <c r="AT3">
-        <v>34.73</v>
+        <v>28.68</v>
       </c>
       <c r="AU3">
-        <v>28.68</v>
+        <v>23.12</v>
       </c>
       <c r="AV3">
-        <v>23.12</v>
-      </c>
-      <c r="AW3">
         <v>3.79</v>
       </c>
-      <c r="AX3">
-        <v>18.85</v>
-      </c>
-      <c r="AY3">
-        <v>11.44</v>
-      </c>
-      <c r="AZ3">
-        <v>2.55</v>
-      </c>
-      <c r="BA3">
-        <v>34.67</v>
-      </c>
-      <c r="BB3">
-        <v>31.88</v>
-      </c>
-      <c r="BC3">
-        <v>0.62</v>
-      </c>
-      <c r="BD3">
-        <v>3.52</v>
-      </c>
-      <c r="BE3">
-        <v>1.39</v>
-      </c>
-      <c r="BF3">
-        <v>1.63</v>
-      </c>
-      <c r="BG3">
-        <v>15.85</v>
-      </c>
-      <c r="BH3">
-        <v>62.96</v>
-      </c>
-      <c r="BI3">
-        <v>74.11</v>
-      </c>
-      <c r="BJ3">
-        <v>27.9</v>
-      </c>
-      <c r="BK3">
-        <v>34.4</v>
-      </c>
     </row>
-    <row r="4" spans="1:63">
+    <row r="4" spans="1:48">
       <c r="A4" s="1">
         <v>33865</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" t="s">
-        <v>75</v>
+        <v>48</v>
+      </c>
+      <c r="D4">
+        <v>202108</v>
       </c>
       <c r="E4">
-        <v>202108</v>
+        <v>2021</v>
       </c>
       <c r="F4">
-        <v>2021</v>
-      </c>
-      <c r="G4">
         <v>5444900659</v>
       </c>
+      <c r="G4" t="s">
+        <v>49</v>
+      </c>
       <c r="H4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" t="s">
-        <v>77</v>
+        <v>50</v>
+      </c>
+      <c r="I4">
+        <v>4427039000</v>
       </c>
       <c r="J4">
-        <v>4427039000</v>
-      </c>
-      <c r="K4">
         <v>56.96969696969698</v>
       </c>
-      <c r="L4" t="s">
-        <v>78</v>
+      <c r="K4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4">
+        <v>39238780</v>
       </c>
       <c r="M4">
-        <v>39238780</v>
+        <v>413</v>
       </c>
       <c r="N4">
-        <v>413</v>
+        <v>97553</v>
       </c>
       <c r="O4">
-        <v>97553</v>
+        <v>92.29000000000001</v>
       </c>
       <c r="P4">
-        <v>92.29000000000001</v>
+        <v>7.71</v>
       </c>
       <c r="Q4">
-        <v>7.71</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>17.72</v>
       </c>
       <c r="S4">
-        <v>17.72</v>
+        <v>16.3</v>
       </c>
       <c r="T4">
-        <v>16.3</v>
+        <v>17.86</v>
       </c>
       <c r="U4">
-        <v>17.86</v>
+        <v>32.45</v>
       </c>
       <c r="V4">
-        <v>32.45</v>
+        <v>15.66</v>
       </c>
       <c r="W4">
-        <v>15.66</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>28.57</v>
       </c>
       <c r="Y4">
-        <v>28.57</v>
+        <v>18.73</v>
       </c>
       <c r="Z4">
-        <v>18.73</v>
+        <v>33.3</v>
       </c>
       <c r="AA4">
-        <v>33.3</v>
+        <v>19.4</v>
       </c>
       <c r="AB4">
-        <v>19.4</v>
+        <v>0</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -1276,228 +1060,183 @@
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>17.74</v>
       </c>
       <c r="AF4">
-        <v>17.74</v>
+        <v>4.29</v>
       </c>
       <c r="AG4">
-        <v>4.29</v>
+        <v>2.42</v>
       </c>
       <c r="AH4">
-        <v>2.42</v>
+        <v>1.49</v>
       </c>
       <c r="AI4">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="AK4">
-        <v>0.61</v>
+        <v>4.72</v>
       </c>
       <c r="AL4">
-        <v>4.72</v>
+        <v>28.62</v>
       </c>
       <c r="AM4">
-        <v>28.62</v>
+        <v>26.43</v>
       </c>
       <c r="AN4">
-        <v>26.43</v>
+        <v>13.68</v>
       </c>
       <c r="AO4">
-        <v>13.68</v>
+        <v>0.77</v>
       </c>
       <c r="AP4">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>0</v>
+        <v>14.98</v>
       </c>
       <c r="AS4">
-        <v>14.98</v>
+        <v>29.22</v>
       </c>
       <c r="AT4">
-        <v>29.22</v>
+        <v>14.39</v>
       </c>
       <c r="AU4">
-        <v>14.39</v>
+        <v>28</v>
       </c>
       <c r="AV4">
-        <v>28</v>
-      </c>
-      <c r="AW4">
         <v>12.64</v>
       </c>
-      <c r="AX4">
-        <v>23.46</v>
-      </c>
-      <c r="AY4">
-        <v>0.45</v>
-      </c>
-      <c r="AZ4">
-        <v>14.67</v>
-      </c>
-      <c r="BA4">
-        <v>43.62</v>
-      </c>
-      <c r="BB4">
-        <v>8.529999999999999</v>
-      </c>
-      <c r="BC4">
-        <v>9.26</v>
-      </c>
-      <c r="BD4">
-        <v>1</v>
-      </c>
-      <c r="BE4">
-        <v>17.83</v>
-      </c>
-      <c r="BF4">
-        <v>1.5</v>
-      </c>
-      <c r="BG4">
-        <v>34.03</v>
-      </c>
-      <c r="BH4">
-        <v>80.97</v>
-      </c>
-      <c r="BI4">
-        <v>93.61</v>
-      </c>
-      <c r="BJ4">
-        <v>21.3</v>
-      </c>
-      <c r="BK4">
-        <v>21.3</v>
-      </c>
     </row>
-    <row r="5" spans="1:63">
+    <row r="5" spans="1:48">
       <c r="A5" s="1">
         <v>35594</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" t="s">
-        <v>75</v>
+        <v>48</v>
+      </c>
+      <c r="D5">
+        <v>202109</v>
       </c>
       <c r="E5">
-        <v>202109</v>
+        <v>2021</v>
       </c>
       <c r="F5">
-        <v>2021</v>
-      </c>
-      <c r="G5">
         <v>5444900659</v>
       </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
       <c r="H5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I5" t="s">
-        <v>77</v>
+        <v>50</v>
+      </c>
+      <c r="I5">
+        <v>4427039000</v>
       </c>
       <c r="J5">
-        <v>4427039000</v>
-      </c>
-      <c r="K5">
         <v>56.96969696969698</v>
       </c>
-      <c r="L5" t="s">
-        <v>78</v>
+      <c r="K5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5">
+        <v>78770277</v>
       </c>
       <c r="M5">
-        <v>78770277</v>
+        <v>466</v>
       </c>
       <c r="N5">
-        <v>466</v>
+        <v>171957</v>
       </c>
       <c r="O5">
-        <v>171957</v>
+        <v>100</v>
       </c>
       <c r="P5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="S5">
-        <v>9.140000000000001</v>
+        <v>24.97</v>
       </c>
       <c r="T5">
-        <v>24.97</v>
+        <v>15.64</v>
       </c>
       <c r="U5">
-        <v>15.64</v>
+        <v>28.38</v>
       </c>
       <c r="V5">
-        <v>28.38</v>
+        <v>21.88</v>
       </c>
       <c r="W5">
-        <v>21.88</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>10.94</v>
       </c>
       <c r="Y5">
-        <v>10.94</v>
+        <v>12.94</v>
       </c>
       <c r="Z5">
-        <v>12.94</v>
+        <v>47.82</v>
       </c>
       <c r="AA5">
-        <v>47.82</v>
+        <v>24.33</v>
       </c>
       <c r="AB5">
-        <v>24.33</v>
+        <v>3.97</v>
       </c>
       <c r="AC5">
-        <v>3.97</v>
+        <v>0</v>
       </c>
       <c r="AD5">
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="AF5">
         <v>0.16</v>
       </c>
       <c r="AG5">
-        <v>0.16</v>
+        <v>11.14</v>
       </c>
       <c r="AH5">
-        <v>11.14</v>
+        <v>19.98</v>
       </c>
       <c r="AI5">
-        <v>19.98</v>
+        <v>0.08</v>
       </c>
       <c r="AJ5">
-        <v>0.08</v>
+        <v>3.97</v>
       </c>
       <c r="AK5">
-        <v>3.97</v>
+        <v>4.5</v>
       </c>
       <c r="AL5">
-        <v>4.5</v>
+        <v>27.88</v>
       </c>
       <c r="AM5">
-        <v>27.88</v>
+        <v>15.73</v>
       </c>
       <c r="AN5">
-        <v>15.73</v>
+        <v>16.41</v>
       </c>
       <c r="AO5">
-        <v>16.41</v>
+        <v>0</v>
       </c>
       <c r="AP5">
         <v>0</v>
@@ -1506,150 +1245,105 @@
         <v>0</v>
       </c>
       <c r="AR5">
-        <v>0</v>
+        <v>10.47</v>
       </c>
       <c r="AS5">
-        <v>10.47</v>
+        <v>66.08</v>
       </c>
       <c r="AT5">
-        <v>66.08</v>
+        <v>9.17</v>
       </c>
       <c r="AU5">
-        <v>9.17</v>
+        <v>10.91</v>
       </c>
       <c r="AV5">
-        <v>10.91</v>
-      </c>
-      <c r="AW5">
         <v>3.37</v>
       </c>
-      <c r="AX5">
-        <v>20.61</v>
-      </c>
-      <c r="AY5">
-        <v>16.85</v>
-      </c>
-      <c r="AZ5">
-        <v>12.04</v>
-      </c>
-      <c r="BA5">
-        <v>16.85</v>
-      </c>
-      <c r="BB5">
-        <v>33.12</v>
-      </c>
-      <c r="BC5">
-        <v>0.53</v>
-      </c>
-      <c r="BD5">
-        <v>0.22</v>
-      </c>
-      <c r="BE5">
-        <v>2.38</v>
-      </c>
-      <c r="BF5">
-        <v>4.05</v>
-      </c>
-      <c r="BG5">
-        <v>26.53</v>
-      </c>
-      <c r="BH5">
-        <v>66.43000000000001</v>
-      </c>
-      <c r="BI5">
-        <v>80.41</v>
-      </c>
-      <c r="BJ5">
-        <v>31.7</v>
-      </c>
-      <c r="BK5">
-        <v>30.2</v>
-      </c>
     </row>
-    <row r="6" spans="1:63">
+    <row r="6" spans="1:48">
       <c r="A6" s="1">
         <v>37320</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" t="s">
-        <v>75</v>
+        <v>48</v>
+      </c>
+      <c r="D6">
+        <v>202110</v>
       </c>
       <c r="E6">
-        <v>202110</v>
+        <v>2021</v>
       </c>
       <c r="F6">
-        <v>2021</v>
-      </c>
-      <c r="G6">
         <v>5444900659</v>
       </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
       <c r="H6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" t="s">
-        <v>77</v>
+        <v>50</v>
+      </c>
+      <c r="I6">
+        <v>4427039000</v>
       </c>
       <c r="J6">
-        <v>4427039000</v>
-      </c>
-      <c r="K6">
         <v>56.96969696969698</v>
       </c>
-      <c r="L6" t="s">
-        <v>78</v>
+      <c r="K6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6">
+        <v>126559549</v>
       </c>
       <c r="M6">
-        <v>126559549</v>
+        <v>542</v>
       </c>
       <c r="N6">
-        <v>542</v>
+        <v>230483</v>
       </c>
       <c r="O6">
-        <v>230483</v>
+        <v>96.59</v>
       </c>
       <c r="P6">
-        <v>96.59</v>
+        <v>3.41</v>
       </c>
       <c r="Q6">
-        <v>3.41</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>26.36</v>
       </c>
       <c r="S6">
-        <v>26.36</v>
+        <v>4.93</v>
       </c>
       <c r="T6">
-        <v>4.93</v>
+        <v>15.34</v>
       </c>
       <c r="U6">
-        <v>15.34</v>
+        <v>38.06</v>
       </c>
       <c r="V6">
-        <v>38.06</v>
+        <v>15.31</v>
       </c>
       <c r="W6">
-        <v>15.31</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>23.37</v>
       </c>
       <c r="Y6">
-        <v>23.37</v>
+        <v>19.39</v>
       </c>
       <c r="Z6">
-        <v>19.39</v>
+        <v>27.73</v>
       </c>
       <c r="AA6">
-        <v>27.73</v>
+        <v>29.5</v>
       </c>
       <c r="AB6">
-        <v>29.5</v>
+        <v>0</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -1661,34 +1355,34 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="AG6">
-        <v>0.31</v>
+        <v>8.9</v>
       </c>
       <c r="AH6">
-        <v>8.9</v>
+        <v>6.62</v>
       </c>
       <c r="AI6">
-        <v>6.62</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="AJ6">
-        <v>8.890000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="AK6">
-        <v>3.1</v>
+        <v>3.49</v>
       </c>
       <c r="AL6">
-        <v>3.49</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="AM6">
-        <v>9.470000000000001</v>
+        <v>43.26</v>
       </c>
       <c r="AN6">
-        <v>43.26</v>
+        <v>15.97</v>
       </c>
       <c r="AO6">
-        <v>15.97</v>
+        <v>0</v>
       </c>
       <c r="AP6">
         <v>0</v>
@@ -1697,150 +1391,105 @@
         <v>0</v>
       </c>
       <c r="AR6">
-        <v>0</v>
+        <v>12.8</v>
       </c>
       <c r="AS6">
-        <v>12.8</v>
+        <v>68.36</v>
       </c>
       <c r="AT6">
-        <v>68.36</v>
+        <v>3.42</v>
       </c>
       <c r="AU6">
-        <v>3.42</v>
+        <v>14.98</v>
       </c>
       <c r="AV6">
-        <v>14.98</v>
-      </c>
-      <c r="AW6">
         <v>0.44</v>
       </c>
-      <c r="AX6">
-        <v>15.97</v>
-      </c>
-      <c r="AY6">
-        <v>0.38</v>
-      </c>
-      <c r="AZ6">
-        <v>1.62</v>
-      </c>
-      <c r="BA6">
-        <v>32.71</v>
-      </c>
-      <c r="BB6">
-        <v>42.43</v>
-      </c>
-      <c r="BC6">
-        <v>6.9</v>
-      </c>
-      <c r="BD6">
-        <v>0.09</v>
-      </c>
-      <c r="BE6">
-        <v>0</v>
-      </c>
-      <c r="BF6">
-        <v>2.38</v>
-      </c>
-      <c r="BG6">
-        <v>11.2</v>
-      </c>
-      <c r="BH6">
-        <v>71.48999999999999</v>
-      </c>
-      <c r="BI6">
-        <v>73.69</v>
-      </c>
-      <c r="BJ6">
-        <v>28.6</v>
-      </c>
-      <c r="BK6">
-        <v>22.1</v>
-      </c>
     </row>
-    <row r="7" spans="1:63">
+    <row r="7" spans="1:48">
       <c r="A7" s="1">
         <v>39051</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" t="s">
-        <v>75</v>
+        <v>48</v>
+      </c>
+      <c r="D7">
+        <v>202111</v>
       </c>
       <c r="E7">
-        <v>202111</v>
+        <v>2021</v>
       </c>
       <c r="F7">
-        <v>2021</v>
-      </c>
-      <c r="G7">
         <v>5444900659</v>
       </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
       <c r="H7" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" t="s">
-        <v>77</v>
+        <v>50</v>
+      </c>
+      <c r="I7">
+        <v>4427039000</v>
       </c>
       <c r="J7">
-        <v>4427039000</v>
-      </c>
-      <c r="K7">
         <v>56.96969696969698</v>
       </c>
-      <c r="L7" t="s">
-        <v>78</v>
+      <c r="K7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7">
+        <v>89057529</v>
       </c>
       <c r="M7">
-        <v>89057529</v>
+        <v>515</v>
       </c>
       <c r="N7">
-        <v>515</v>
+        <v>176241</v>
       </c>
       <c r="O7">
-        <v>176241</v>
+        <v>100</v>
       </c>
       <c r="P7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>34.28</v>
       </c>
       <c r="S7">
-        <v>34.28</v>
+        <v>18.73</v>
       </c>
       <c r="T7">
-        <v>18.73</v>
+        <v>11.82</v>
       </c>
       <c r="U7">
-        <v>11.82</v>
+        <v>11.76</v>
       </c>
       <c r="V7">
-        <v>11.76</v>
+        <v>23.41</v>
       </c>
       <c r="W7">
-        <v>23.41</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>5.78</v>
       </c>
       <c r="Y7">
-        <v>5.78</v>
+        <v>24.71</v>
       </c>
       <c r="Z7">
-        <v>24.71</v>
+        <v>42.72</v>
       </c>
       <c r="AA7">
-        <v>42.72</v>
+        <v>26.79</v>
       </c>
       <c r="AB7">
-        <v>26.79</v>
+        <v>0</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -1849,189 +1498,144 @@
         <v>0</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>3.06</v>
       </c>
       <c r="AF7">
-        <v>3.06</v>
+        <v>5.38</v>
       </c>
       <c r="AG7">
-        <v>5.38</v>
+        <v>9.74</v>
       </c>
       <c r="AH7">
-        <v>9.74</v>
+        <v>13.24</v>
       </c>
       <c r="AI7">
-        <v>13.24</v>
+        <v>0.3</v>
       </c>
       <c r="AJ7">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AK7">
+        <v>8.08</v>
+      </c>
+      <c r="AL7">
+        <v>30.05</v>
+      </c>
+      <c r="AM7">
+        <v>26.25</v>
+      </c>
+      <c r="AN7">
+        <v>3.75</v>
+      </c>
+      <c r="AO7">
         <v>0.15</v>
       </c>
-      <c r="AL7">
-        <v>8.08</v>
-      </c>
-      <c r="AM7">
-        <v>30.05</v>
-      </c>
-      <c r="AN7">
-        <v>26.25</v>
-      </c>
-      <c r="AO7">
-        <v>3.75</v>
-      </c>
       <c r="AP7">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="AQ7">
         <v>0</v>
       </c>
       <c r="AR7">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="AS7">
-        <v>3.27</v>
+        <v>73.43000000000001</v>
       </c>
       <c r="AT7">
-        <v>73.43000000000001</v>
+        <v>12.11</v>
       </c>
       <c r="AU7">
-        <v>12.11</v>
+        <v>7.17</v>
       </c>
       <c r="AV7">
-        <v>7.17</v>
-      </c>
-      <c r="AW7">
         <v>3.87</v>
       </c>
-      <c r="AX7">
-        <v>17.21</v>
-      </c>
-      <c r="AY7">
-        <v>14.44</v>
-      </c>
-      <c r="AZ7">
-        <v>5.8</v>
-      </c>
-      <c r="BA7">
-        <v>37.98</v>
-      </c>
-      <c r="BB7">
-        <v>24.28</v>
-      </c>
-      <c r="BC7">
-        <v>0.29</v>
-      </c>
-      <c r="BD7">
-        <v>0.21</v>
-      </c>
-      <c r="BE7">
-        <v>0.02</v>
-      </c>
-      <c r="BF7">
-        <v>3.89</v>
-      </c>
-      <c r="BG7">
-        <v>7.75</v>
-      </c>
-      <c r="BH7">
-        <v>59.4</v>
-      </c>
-      <c r="BI7">
-        <v>59.45</v>
-      </c>
-      <c r="BJ7">
-        <v>25.4</v>
-      </c>
-      <c r="BK7">
-        <v>23.9</v>
-      </c>
     </row>
-    <row r="8" spans="1:63">
+    <row r="8" spans="1:48">
       <c r="A8" s="1">
         <v>40780</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" t="s">
-        <v>75</v>
+        <v>48</v>
+      </c>
+      <c r="D8">
+        <v>202112</v>
       </c>
       <c r="E8">
-        <v>202112</v>
+        <v>2021</v>
       </c>
       <c r="F8">
-        <v>2021</v>
-      </c>
-      <c r="G8">
         <v>5444900659</v>
       </c>
+      <c r="G8" t="s">
+        <v>49</v>
+      </c>
       <c r="H8" t="s">
-        <v>76</v>
-      </c>
-      <c r="I8" t="s">
-        <v>77</v>
+        <v>50</v>
+      </c>
+      <c r="I8">
+        <v>4427039000</v>
       </c>
       <c r="J8">
-        <v>4427039000</v>
-      </c>
-      <c r="K8">
         <v>56.96969696969698</v>
       </c>
-      <c r="L8" t="s">
-        <v>78</v>
+      <c r="K8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8">
+        <v>45969119</v>
       </c>
       <c r="M8">
-        <v>45969119</v>
+        <v>616</v>
       </c>
       <c r="N8">
-        <v>616</v>
+        <v>76002</v>
       </c>
       <c r="O8">
-        <v>76002</v>
+        <v>100</v>
       </c>
       <c r="P8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>13.52</v>
       </c>
       <c r="S8">
-        <v>13.52</v>
+        <v>11.63</v>
       </c>
       <c r="T8">
-        <v>11.63</v>
+        <v>25.31</v>
       </c>
       <c r="U8">
-        <v>25.31</v>
+        <v>30.12</v>
       </c>
       <c r="V8">
-        <v>30.12</v>
+        <v>19.43</v>
       </c>
       <c r="W8">
-        <v>19.43</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>13.2</v>
       </c>
       <c r="Y8">
-        <v>13.2</v>
+        <v>29.23</v>
       </c>
       <c r="Z8">
-        <v>29.23</v>
+        <v>35.51</v>
       </c>
       <c r="AA8">
-        <v>35.51</v>
+        <v>22.05</v>
       </c>
       <c r="AB8">
-        <v>22.05</v>
+        <v>0</v>
       </c>
       <c r="AC8">
         <v>0</v>
@@ -2043,377 +1647,287 @@
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="AG8">
-        <v>4.33</v>
+        <v>3.57</v>
       </c>
       <c r="AH8">
-        <v>3.57</v>
+        <v>2.74</v>
       </c>
       <c r="AI8">
-        <v>2.74</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="AJ8">
-        <v>9.220000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="AK8">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="AL8">
-        <v>1.75</v>
+        <v>31.06</v>
       </c>
       <c r="AM8">
-        <v>31.06</v>
+        <v>39.38</v>
       </c>
       <c r="AN8">
-        <v>39.38</v>
+        <v>6.56</v>
       </c>
       <c r="AO8">
-        <v>6.56</v>
+        <v>1.37</v>
       </c>
       <c r="AP8">
-        <v>1.37</v>
+        <v>0.13</v>
       </c>
       <c r="AQ8">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>6.74</v>
       </c>
       <c r="AS8">
-        <v>6.74</v>
+        <v>34.14</v>
       </c>
       <c r="AT8">
-        <v>34.14</v>
+        <v>18.97</v>
       </c>
       <c r="AU8">
-        <v>18.97</v>
+        <v>28.62</v>
       </c>
       <c r="AV8">
-        <v>28.62</v>
-      </c>
-      <c r="AW8">
         <v>10.03</v>
       </c>
-      <c r="AX8">
-        <v>11.18</v>
-      </c>
-      <c r="AY8">
-        <v>0.23</v>
-      </c>
-      <c r="AZ8">
-        <v>5.79</v>
-      </c>
-      <c r="BA8">
-        <v>57.42</v>
-      </c>
-      <c r="BB8">
-        <v>14.92</v>
-      </c>
-      <c r="BC8">
-        <v>10.45</v>
-      </c>
-      <c r="BD8">
-        <v>0.58</v>
-      </c>
-      <c r="BE8">
-        <v>0</v>
-      </c>
-      <c r="BF8">
-        <v>1.63</v>
-      </c>
-      <c r="BG8">
-        <v>11.2</v>
-      </c>
-      <c r="BH8">
-        <v>67.91</v>
-      </c>
-      <c r="BI8">
-        <v>67.91</v>
-      </c>
-      <c r="BJ8">
-        <v>29.3</v>
-      </c>
-      <c r="BK8">
-        <v>24.4</v>
-      </c>
     </row>
-    <row r="9" spans="1:63">
+    <row r="9" spans="1:48">
       <c r="A9" s="1">
         <v>42494</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" t="s">
-        <v>75</v>
+        <v>48</v>
+      </c>
+      <c r="D9">
+        <v>202201</v>
       </c>
       <c r="E9">
-        <v>202201</v>
+        <v>2022</v>
       </c>
       <c r="F9">
-        <v>2022</v>
-      </c>
-      <c r="G9">
         <v>5444900659</v>
       </c>
+      <c r="G9" t="s">
+        <v>49</v>
+      </c>
       <c r="H9" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" t="s">
-        <v>77</v>
+        <v>50</v>
+      </c>
+      <c r="I9">
+        <v>4427039000</v>
       </c>
       <c r="J9">
-        <v>4427039000</v>
-      </c>
-      <c r="K9">
         <v>56.96969696969698</v>
       </c>
-      <c r="L9" t="s">
-        <v>78</v>
+      <c r="K9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9">
+        <v>64375295</v>
       </c>
       <c r="M9">
-        <v>64375295</v>
+        <v>464</v>
       </c>
       <c r="N9">
-        <v>464</v>
+        <v>142141</v>
       </c>
       <c r="O9">
-        <v>142141</v>
+        <v>100</v>
       </c>
       <c r="P9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="S9">
-        <v>1.91</v>
+        <v>41.45</v>
       </c>
       <c r="T9">
-        <v>41.45</v>
+        <v>29.98</v>
       </c>
       <c r="U9">
-        <v>29.98</v>
+        <v>11.81</v>
       </c>
       <c r="V9">
-        <v>11.81</v>
+        <v>14.86</v>
       </c>
       <c r="W9">
-        <v>14.86</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>4.11</v>
       </c>
       <c r="Y9">
-        <v>4.11</v>
+        <v>34.13</v>
       </c>
       <c r="Z9">
-        <v>34.13</v>
+        <v>49.68</v>
       </c>
       <c r="AA9">
-        <v>49.68</v>
+        <v>11.76</v>
       </c>
       <c r="AB9">
-        <v>11.76</v>
+        <v>0.32</v>
       </c>
       <c r="AC9">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="AD9">
         <v>0</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>4.02</v>
       </c>
       <c r="AF9">
-        <v>4.02</v>
+        <v>0.04</v>
       </c>
       <c r="AG9">
-        <v>0.04</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="AH9">
-        <v>8.380000000000001</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="AI9">
-        <v>8.640000000000001</v>
+        <v>2.66</v>
       </c>
       <c r="AJ9">
-        <v>2.66</v>
+        <v>0.59</v>
       </c>
       <c r="AK9">
-        <v>0.59</v>
+        <v>3.58</v>
       </c>
       <c r="AL9">
-        <v>3.58</v>
+        <v>4.82</v>
       </c>
       <c r="AM9">
-        <v>4.82</v>
+        <v>38.43</v>
       </c>
       <c r="AN9">
-        <v>38.43</v>
+        <v>28.84</v>
       </c>
       <c r="AO9">
-        <v>28.84</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="AP9">
-        <v>8.880000000000001</v>
+        <v>0</v>
       </c>
       <c r="AQ9">
         <v>0</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>5.06</v>
       </c>
       <c r="AS9">
-        <v>5.06</v>
+        <v>51.61</v>
       </c>
       <c r="AT9">
-        <v>51.61</v>
+        <v>26.26</v>
       </c>
       <c r="AU9">
-        <v>26.26</v>
+        <v>1.36</v>
       </c>
       <c r="AV9">
-        <v>1.36</v>
-      </c>
-      <c r="AW9">
         <v>6.83</v>
       </c>
-      <c r="AX9">
-        <v>9.24</v>
-      </c>
-      <c r="AY9">
-        <v>0.13</v>
-      </c>
-      <c r="AZ9">
-        <v>0.98</v>
-      </c>
-      <c r="BA9">
-        <v>45.53</v>
-      </c>
-      <c r="BB9">
-        <v>38.23</v>
-      </c>
-      <c r="BC9">
-        <v>5.89</v>
-      </c>
-      <c r="BD9">
-        <v>1.83</v>
-      </c>
-      <c r="BE9">
-        <v>4.02</v>
-      </c>
-      <c r="BF9">
-        <v>2.92</v>
-      </c>
-      <c r="BG9">
-        <v>22.37</v>
-      </c>
-      <c r="BH9">
-        <v>72.47</v>
-      </c>
-      <c r="BI9">
-        <v>76.65000000000001</v>
-      </c>
-      <c r="BJ9">
-        <v>36.8</v>
-      </c>
-      <c r="BK9">
-        <v>31.6</v>
-      </c>
     </row>
-    <row r="10" spans="1:63">
+    <row r="10" spans="1:48">
       <c r="A10" s="1">
         <v>44217</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" t="s">
-        <v>75</v>
+        <v>48</v>
+      </c>
+      <c r="D10">
+        <v>202202</v>
       </c>
       <c r="E10">
-        <v>202202</v>
+        <v>2022</v>
       </c>
       <c r="F10">
-        <v>2022</v>
-      </c>
-      <c r="G10">
         <v>5444900659</v>
       </c>
+      <c r="G10" t="s">
+        <v>49</v>
+      </c>
       <c r="H10" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" t="s">
-        <v>77</v>
+        <v>50</v>
+      </c>
+      <c r="I10">
+        <v>4427039000</v>
       </c>
       <c r="J10">
-        <v>4427039000</v>
-      </c>
-      <c r="K10">
         <v>56.96969696969698</v>
       </c>
-      <c r="L10" t="s">
-        <v>78</v>
+      <c r="K10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10">
+        <v>45611519</v>
       </c>
       <c r="M10">
-        <v>45611519</v>
+        <v>369</v>
       </c>
       <c r="N10">
-        <v>369</v>
+        <v>123678</v>
       </c>
       <c r="O10">
-        <v>123678</v>
+        <v>100</v>
       </c>
       <c r="P10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>24.15</v>
       </c>
       <c r="S10">
-        <v>24.15</v>
+        <v>12.88</v>
       </c>
       <c r="T10">
-        <v>12.88</v>
+        <v>0.67</v>
       </c>
       <c r="U10">
-        <v>0.67</v>
+        <v>42.4</v>
       </c>
       <c r="V10">
-        <v>42.4</v>
+        <v>19.9</v>
       </c>
       <c r="W10">
-        <v>19.9</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>14.07</v>
       </c>
       <c r="Y10">
-        <v>14.07</v>
+        <v>19.63</v>
       </c>
       <c r="Z10">
-        <v>19.63</v>
+        <v>38.54</v>
       </c>
       <c r="AA10">
-        <v>38.54</v>
+        <v>27.76</v>
       </c>
       <c r="AB10">
-        <v>27.76</v>
+        <v>0</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -2422,189 +1936,144 @@
         <v>0</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="AF10">
         <v>0.24</v>
       </c>
       <c r="AG10">
-        <v>0.24</v>
+        <v>0.46</v>
       </c>
       <c r="AH10">
-        <v>0.46</v>
+        <v>6.14</v>
       </c>
       <c r="AI10">
-        <v>6.14</v>
+        <v>11.83</v>
       </c>
       <c r="AJ10">
-        <v>11.83</v>
+        <v>5.82</v>
       </c>
       <c r="AK10">
-        <v>5.82</v>
+        <v>14.07</v>
       </c>
       <c r="AL10">
-        <v>14.07</v>
+        <v>27.43</v>
       </c>
       <c r="AM10">
-        <v>27.43</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="AN10">
-        <v>8.789999999999999</v>
+        <v>24.98</v>
       </c>
       <c r="AO10">
-        <v>24.98</v>
+        <v>4.36</v>
       </c>
       <c r="AP10">
-        <v>4.36</v>
+        <v>0.02</v>
       </c>
       <c r="AQ10">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>7.48</v>
       </c>
       <c r="AS10">
-        <v>7.48</v>
+        <v>53.5</v>
       </c>
       <c r="AT10">
-        <v>53.5</v>
+        <v>24.99</v>
       </c>
       <c r="AU10">
-        <v>24.99</v>
+        <v>1.34</v>
       </c>
       <c r="AV10">
-        <v>1.34</v>
-      </c>
-      <c r="AW10">
         <v>8.31</v>
       </c>
-      <c r="AX10">
-        <v>46.59</v>
-      </c>
-      <c r="AY10">
-        <v>11.96</v>
-      </c>
-      <c r="AZ10">
-        <v>1.77</v>
-      </c>
-      <c r="BA10">
-        <v>19.21</v>
-      </c>
-      <c r="BB10">
-        <v>20.45</v>
-      </c>
-      <c r="BC10">
-        <v>0.02</v>
-      </c>
-      <c r="BD10">
-        <v>3.21</v>
-      </c>
-      <c r="BE10">
-        <v>1.45</v>
-      </c>
-      <c r="BF10">
-        <v>14.54</v>
-      </c>
-      <c r="BG10">
-        <v>20.87</v>
-      </c>
-      <c r="BH10">
-        <v>58.13</v>
-      </c>
-      <c r="BI10">
-        <v>58.54</v>
-      </c>
-      <c r="BJ10">
-        <v>20.8</v>
-      </c>
-      <c r="BK10">
-        <v>18.9</v>
-      </c>
     </row>
-    <row r="11" spans="1:63">
+    <row r="11" spans="1:48">
       <c r="A11" s="1">
         <v>45925</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" t="s">
-        <v>75</v>
+        <v>48</v>
+      </c>
+      <c r="D11">
+        <v>202203</v>
       </c>
       <c r="E11">
-        <v>202203</v>
+        <v>2022</v>
       </c>
       <c r="F11">
-        <v>2022</v>
-      </c>
-      <c r="G11">
         <v>5444900659</v>
       </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
       <c r="H11" t="s">
-        <v>76</v>
-      </c>
-      <c r="I11" t="s">
-        <v>77</v>
+        <v>50</v>
+      </c>
+      <c r="I11">
+        <v>4427039000</v>
       </c>
       <c r="J11">
-        <v>4427039000</v>
-      </c>
-      <c r="K11">
         <v>56.96969696969698</v>
       </c>
-      <c r="L11" t="s">
-        <v>78</v>
+      <c r="K11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11">
+        <v>87802392</v>
       </c>
       <c r="M11">
-        <v>87802392</v>
+        <v>448</v>
       </c>
       <c r="N11">
-        <v>448</v>
+        <v>195002</v>
       </c>
       <c r="O11">
-        <v>195002</v>
+        <v>100</v>
       </c>
       <c r="P11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>20.47</v>
       </c>
       <c r="S11">
-        <v>20.47</v>
+        <v>11.31</v>
       </c>
       <c r="T11">
-        <v>11.31</v>
+        <v>37.78</v>
       </c>
       <c r="U11">
-        <v>37.78</v>
+        <v>25.09</v>
       </c>
       <c r="V11">
-        <v>25.09</v>
+        <v>5.36</v>
       </c>
       <c r="W11">
-        <v>5.36</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>15.32</v>
       </c>
       <c r="Y11">
-        <v>15.32</v>
+        <v>33.04</v>
       </c>
       <c r="Z11">
-        <v>33.04</v>
+        <v>21.31</v>
       </c>
       <c r="AA11">
-        <v>21.31</v>
+        <v>30.34</v>
       </c>
       <c r="AB11">
-        <v>30.34</v>
+        <v>0</v>
       </c>
       <c r="AC11">
         <v>0</v>
@@ -2616,34 +2085,34 @@
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>12.6</v>
       </c>
       <c r="AG11">
-        <v>12.6</v>
+        <v>0.31</v>
       </c>
       <c r="AH11">
-        <v>0.31</v>
+        <v>28.53</v>
       </c>
       <c r="AI11">
-        <v>28.53</v>
+        <v>4.27</v>
       </c>
       <c r="AJ11">
-        <v>4.27</v>
+        <v>0.22</v>
       </c>
       <c r="AK11">
-        <v>0.22</v>
+        <v>3.43</v>
       </c>
       <c r="AL11">
-        <v>3.43</v>
+        <v>14.82</v>
       </c>
       <c r="AM11">
-        <v>14.82</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="AN11">
-        <v>8.960000000000001</v>
+        <v>26.86</v>
       </c>
       <c r="AO11">
-        <v>26.86</v>
+        <v>0</v>
       </c>
       <c r="AP11">
         <v>0</v>
@@ -2652,150 +2121,105 @@
         <v>0</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="AS11">
-        <v>9.050000000000001</v>
+        <v>70.66</v>
       </c>
       <c r="AT11">
-        <v>70.66</v>
+        <v>12.02</v>
       </c>
       <c r="AU11">
-        <v>12.02</v>
+        <v>2.76</v>
       </c>
       <c r="AV11">
-        <v>2.76</v>
-      </c>
-      <c r="AW11">
         <v>5.5</v>
       </c>
-      <c r="AX11">
-        <v>27.26</v>
-      </c>
-      <c r="AY11">
-        <v>0.31</v>
-      </c>
-      <c r="AZ11">
-        <v>6.94</v>
-      </c>
-      <c r="BA11">
-        <v>24.21</v>
-      </c>
-      <c r="BB11">
-        <v>30.41</v>
-      </c>
-      <c r="BC11">
-        <v>10.86</v>
-      </c>
-      <c r="BD11">
-        <v>9.42</v>
-      </c>
-      <c r="BE11">
-        <v>0.12</v>
-      </c>
-      <c r="BF11">
-        <v>2.83</v>
-      </c>
-      <c r="BG11">
-        <v>20.54</v>
-      </c>
-      <c r="BH11">
-        <v>47.57</v>
-      </c>
-      <c r="BI11">
-        <v>49.08</v>
-      </c>
-      <c r="BJ11">
-        <v>18.8</v>
-      </c>
-      <c r="BK11">
-        <v>17.2</v>
-      </c>
     </row>
-    <row r="12" spans="1:63">
+    <row r="12" spans="1:48">
       <c r="A12" s="1">
         <v>47646</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" t="s">
-        <v>75</v>
+        <v>48</v>
+      </c>
+      <c r="D12">
+        <v>202204</v>
       </c>
       <c r="E12">
-        <v>202204</v>
+        <v>2022</v>
       </c>
       <c r="F12">
-        <v>2022</v>
-      </c>
-      <c r="G12">
         <v>5444900659</v>
       </c>
+      <c r="G12" t="s">
+        <v>49</v>
+      </c>
       <c r="H12" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12" t="s">
-        <v>77</v>
+        <v>50</v>
+      </c>
+      <c r="I12">
+        <v>4427039000</v>
       </c>
       <c r="J12">
-        <v>4427039000</v>
-      </c>
-      <c r="K12">
         <v>56.96969696969698</v>
       </c>
-      <c r="L12" t="s">
-        <v>78</v>
+      <c r="K12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12">
+        <v>53263895</v>
       </c>
       <c r="M12">
-        <v>53263895</v>
+        <v>529</v>
       </c>
       <c r="N12">
-        <v>529</v>
+        <v>100382</v>
       </c>
       <c r="O12">
-        <v>100382</v>
+        <v>100</v>
       </c>
       <c r="P12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>26.99</v>
       </c>
       <c r="S12">
-        <v>26.99</v>
+        <v>19.56</v>
       </c>
       <c r="T12">
-        <v>19.56</v>
+        <v>12.32</v>
       </c>
       <c r="U12">
-        <v>12.32</v>
+        <v>33.54</v>
       </c>
       <c r="V12">
-        <v>33.54</v>
+        <v>7.58</v>
       </c>
       <c r="W12">
-        <v>7.58</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>36.57</v>
       </c>
       <c r="Y12">
-        <v>36.57</v>
+        <v>12.67</v>
       </c>
       <c r="Z12">
-        <v>12.67</v>
+        <v>45.53</v>
       </c>
       <c r="AA12">
-        <v>45.53</v>
+        <v>5.24</v>
       </c>
       <c r="AB12">
-        <v>5.24</v>
+        <v>0</v>
       </c>
       <c r="AC12">
         <v>0</v>
@@ -2804,37 +2228,37 @@
         <v>0</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>3.02</v>
       </c>
       <c r="AF12">
-        <v>3.02</v>
+        <v>0.08</v>
       </c>
       <c r="AG12">
-        <v>0.08</v>
+        <v>0.23</v>
       </c>
       <c r="AH12">
-        <v>0.23</v>
+        <v>21.57</v>
       </c>
       <c r="AI12">
-        <v>21.57</v>
+        <v>0.37</v>
       </c>
       <c r="AJ12">
-        <v>0.37</v>
+        <v>0.21</v>
       </c>
       <c r="AK12">
-        <v>0.21</v>
+        <v>2.08</v>
       </c>
       <c r="AL12">
-        <v>2.08</v>
+        <v>17.93</v>
       </c>
       <c r="AM12">
-        <v>17.93</v>
+        <v>42.34</v>
       </c>
       <c r="AN12">
-        <v>42.34</v>
+        <v>12.19</v>
       </c>
       <c r="AO12">
-        <v>12.19</v>
+        <v>0</v>
       </c>
       <c r="AP12">
         <v>0</v>
@@ -2843,150 +2267,105 @@
         <v>0</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AS12">
-        <v>1.23</v>
+        <v>36.13</v>
       </c>
       <c r="AT12">
-        <v>36.13</v>
+        <v>31.05</v>
       </c>
       <c r="AU12">
-        <v>31.05</v>
+        <v>4.34</v>
       </c>
       <c r="AV12">
-        <v>4.34</v>
-      </c>
-      <c r="AW12">
         <v>27.24</v>
       </c>
-      <c r="AX12">
-        <v>19.63</v>
-      </c>
-      <c r="AY12">
-        <v>0.09</v>
-      </c>
-      <c r="AZ12">
-        <v>1.26</v>
-      </c>
-      <c r="BA12">
-        <v>57.51</v>
-      </c>
-      <c r="BB12">
-        <v>15.47</v>
-      </c>
-      <c r="BC12">
-        <v>6.04</v>
-      </c>
-      <c r="BD12">
-        <v>0.19</v>
-      </c>
-      <c r="BE12">
-        <v>0</v>
-      </c>
-      <c r="BF12">
-        <v>3.62</v>
-      </c>
-      <c r="BG12">
-        <v>36.57</v>
-      </c>
-      <c r="BH12">
-        <v>77.8</v>
-      </c>
-      <c r="BI12">
-        <v>84.02</v>
-      </c>
-      <c r="BJ12">
-        <v>35.7</v>
-      </c>
-      <c r="BK12">
-        <v>22.9</v>
-      </c>
     </row>
-    <row r="13" spans="1:63">
+    <row r="13" spans="1:48">
       <c r="A13" s="1">
         <v>49372</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" t="s">
-        <v>75</v>
+        <v>48</v>
+      </c>
+      <c r="D13">
+        <v>202205</v>
       </c>
       <c r="E13">
-        <v>202205</v>
+        <v>2022</v>
       </c>
       <c r="F13">
-        <v>2022</v>
-      </c>
-      <c r="G13">
         <v>5444900659</v>
       </c>
+      <c r="G13" t="s">
+        <v>49</v>
+      </c>
       <c r="H13" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" t="s">
-        <v>77</v>
+        <v>50</v>
+      </c>
+      <c r="I13">
+        <v>4427039000</v>
       </c>
       <c r="J13">
-        <v>4427039000</v>
-      </c>
-      <c r="K13">
         <v>56.96969696969698</v>
       </c>
-      <c r="L13" t="s">
-        <v>78</v>
+      <c r="K13" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13">
+        <v>55744424</v>
       </c>
       <c r="M13">
-        <v>55744424</v>
+        <v>421</v>
       </c>
       <c r="N13">
-        <v>421</v>
+        <v>137659</v>
       </c>
       <c r="O13">
-        <v>137659</v>
+        <v>100</v>
       </c>
       <c r="P13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>56.83</v>
       </c>
       <c r="S13">
-        <v>56.83</v>
+        <v>27.79</v>
       </c>
       <c r="T13">
-        <v>27.79</v>
+        <v>10.87</v>
       </c>
       <c r="U13">
-        <v>10.87</v>
+        <v>1.86</v>
       </c>
       <c r="V13">
-        <v>1.86</v>
+        <v>2.65</v>
       </c>
       <c r="W13">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="Y13">
-        <v>2.17</v>
+        <v>58.72</v>
       </c>
       <c r="Z13">
-        <v>58.72</v>
+        <v>26.06</v>
       </c>
       <c r="AA13">
-        <v>26.06</v>
+        <v>13.05</v>
       </c>
       <c r="AB13">
-        <v>13.05</v>
+        <v>0</v>
       </c>
       <c r="AC13">
         <v>0</v>
@@ -2995,37 +2374,37 @@
         <v>0</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="AF13">
         <v>0.19</v>
       </c>
       <c r="AG13">
-        <v>0.19</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AH13">
-        <v>9.199999999999999</v>
+        <v>3.07</v>
       </c>
       <c r="AI13">
-        <v>3.07</v>
+        <v>2.89</v>
       </c>
       <c r="AJ13">
-        <v>2.89</v>
+        <v>0.42</v>
       </c>
       <c r="AK13">
-        <v>0.42</v>
+        <v>10.56</v>
       </c>
       <c r="AL13">
-        <v>10.56</v>
+        <v>38.16</v>
       </c>
       <c r="AM13">
-        <v>38.16</v>
+        <v>6.34</v>
       </c>
       <c r="AN13">
-        <v>6.34</v>
+        <v>28.99</v>
       </c>
       <c r="AO13">
-        <v>28.99</v>
+        <v>0</v>
       </c>
       <c r="AP13">
         <v>0</v>
@@ -3034,64 +2413,19 @@
         <v>0</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AS13">
-        <v>1.49</v>
+        <v>28.87</v>
       </c>
       <c r="AT13">
-        <v>28.87</v>
+        <v>41.39</v>
       </c>
       <c r="AU13">
-        <v>41.39</v>
+        <v>26.76</v>
       </c>
       <c r="AV13">
-        <v>26.76</v>
-      </c>
-      <c r="AW13">
         <v>1.48</v>
-      </c>
-      <c r="AX13">
-        <v>4.78</v>
-      </c>
-      <c r="AY13">
-        <v>0</v>
-      </c>
-      <c r="AZ13">
-        <v>32.02</v>
-      </c>
-      <c r="BA13">
-        <v>34.6</v>
-      </c>
-      <c r="BB13">
-        <v>7.62</v>
-      </c>
-      <c r="BC13">
-        <v>20.98</v>
-      </c>
-      <c r="BD13">
-        <v>0.59</v>
-      </c>
-      <c r="BE13">
-        <v>0.24</v>
-      </c>
-      <c r="BF13">
-        <v>3.57</v>
-      </c>
-      <c r="BG13">
-        <v>51.22</v>
-      </c>
-      <c r="BH13">
-        <v>64.64</v>
-      </c>
-      <c r="BI13">
-        <v>65.13</v>
-      </c>
-      <c r="BJ13">
-        <v>31.7</v>
-      </c>
-      <c r="BK13">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/시장분석용_정보/시장분석용_4427039000.xlsx
+++ b/시장분석용_정보/시장분석용_4427039000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="36">
   <si>
     <t>sim_cd</t>
   </si>
@@ -53,54 +53,6 @@
   </si>
   <si>
     <t>AVG_AMT</t>
-  </si>
-  <si>
-    <t>WK_RT</t>
-  </si>
-  <si>
-    <t>WE_RT</t>
-  </si>
-  <si>
-    <t>WK_1_RT</t>
-  </si>
-  <si>
-    <t>WK_2_RT</t>
-  </si>
-  <si>
-    <t>WK_3_RT</t>
-  </si>
-  <si>
-    <t>WK_4_RT</t>
-  </si>
-  <si>
-    <t>WK_5_RT</t>
-  </si>
-  <si>
-    <t>WK_6_RT</t>
-  </si>
-  <si>
-    <t>WK_7_RT</t>
-  </si>
-  <si>
-    <t>TIME_0510_RT</t>
-  </si>
-  <si>
-    <t>TIME_1114_RT</t>
-  </si>
-  <si>
-    <t>TIME_1517_RT</t>
-  </si>
-  <si>
-    <t>TIME_1819_RT</t>
-  </si>
-  <si>
-    <t>TIME_2021_RT</t>
-  </si>
-  <si>
-    <t>TIME_2224_RT</t>
-  </si>
-  <si>
-    <t>TIME_0104_RT</t>
   </si>
   <si>
     <t>F20_RT</t>
@@ -527,13 +479,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV13"/>
+  <dimension ref="A1:AF13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:32">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,64 +579,16 @@
       <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:32">
       <c r="A2" s="1">
         <v>30416</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>202106</v>
@@ -696,10 +600,10 @@
         <v>5444900659</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I2">
         <v>4427039000</v>
@@ -708,7 +612,7 @@
         <v>56.96969696969698</v>
       </c>
       <c r="K2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L2">
         <v>24195331</v>
@@ -720,117 +624,69 @@
         <v>115354</v>
       </c>
       <c r="O2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="R2">
-        <v>39</v>
+        <v>11.67</v>
       </c>
       <c r="S2">
-        <v>48.45</v>
+        <v>22.23</v>
       </c>
       <c r="T2">
-        <v>1.54</v>
+        <v>4.36</v>
       </c>
       <c r="U2">
-        <v>7.95</v>
+        <v>5.54</v>
       </c>
       <c r="V2">
-        <v>3.06</v>
+        <v>50.04</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="X2">
-        <v>1.03</v>
+        <v>1.88</v>
       </c>
       <c r="Y2">
-        <v>25.52</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>55.6</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>17.84</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AF2">
         <v>0</v>
       </c>
-      <c r="AG2">
-        <v>0.33</v>
-      </c>
-      <c r="AH2">
-        <v>11.67</v>
-      </c>
-      <c r="AI2">
-        <v>22.23</v>
-      </c>
-      <c r="AJ2">
-        <v>4.36</v>
-      </c>
-      <c r="AK2">
-        <v>5.54</v>
-      </c>
-      <c r="AL2">
-        <v>50.04</v>
-      </c>
-      <c r="AM2">
-        <v>3.95</v>
-      </c>
-      <c r="AN2">
-        <v>1.88</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>1.85</v>
-      </c>
-      <c r="AS2">
-        <v>95</v>
-      </c>
-      <c r="AT2">
-        <v>2.02</v>
-      </c>
-      <c r="AU2">
-        <v>1.12</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:32">
       <c r="A3" s="1">
         <v>32146</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>202107</v>
@@ -842,10 +698,10 @@
         <v>5444900659</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I3">
         <v>4427039000</v>
@@ -854,7 +710,7 @@
         <v>56.96969696969698</v>
       </c>
       <c r="K3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L3">
         <v>91479155</v>
@@ -866,117 +722,69 @@
         <v>194991</v>
       </c>
       <c r="O3">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="R3">
-        <v>6.9</v>
+        <v>6.39</v>
       </c>
       <c r="S3">
-        <v>45.71</v>
+        <v>5.53</v>
       </c>
       <c r="T3">
-        <v>10.52</v>
+        <v>2.44</v>
       </c>
       <c r="U3">
-        <v>32.11</v>
+        <v>11.65</v>
       </c>
       <c r="V3">
-        <v>4.77</v>
+        <v>36.05</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>27.59</v>
       </c>
       <c r="X3">
-        <v>10.38</v>
+        <v>8.42</v>
       </c>
       <c r="Y3">
-        <v>8.01</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>55.26</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>26.35</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>9.68</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>34.73</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>28.68</v>
       </c>
       <c r="AE3">
-        <v>0.5</v>
+        <v>23.12</v>
       </c>
       <c r="AF3">
-        <v>1.39</v>
-      </c>
-      <c r="AG3">
-        <v>0.05</v>
-      </c>
-      <c r="AH3">
-        <v>6.39</v>
-      </c>
-      <c r="AI3">
-        <v>5.53</v>
-      </c>
-      <c r="AJ3">
-        <v>2.44</v>
-      </c>
-      <c r="AK3">
-        <v>11.65</v>
-      </c>
-      <c r="AL3">
-        <v>36.05</v>
-      </c>
-      <c r="AM3">
-        <v>27.59</v>
-      </c>
-      <c r="AN3">
-        <v>8.42</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>9.68</v>
-      </c>
-      <c r="AS3">
-        <v>34.73</v>
-      </c>
-      <c r="AT3">
-        <v>28.68</v>
-      </c>
-      <c r="AU3">
-        <v>23.12</v>
-      </c>
-      <c r="AV3">
         <v>3.79</v>
       </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:32">
       <c r="A4" s="1">
         <v>33865</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <v>202108</v>
@@ -988,10 +796,10 @@
         <v>5444900659</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I4">
         <v>4427039000</v>
@@ -1000,7 +808,7 @@
         <v>56.96969696969698</v>
       </c>
       <c r="K4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L4">
         <v>39238780</v>
@@ -1012,117 +820,69 @@
         <v>97553</v>
       </c>
       <c r="O4">
-        <v>92.29000000000001</v>
+        <v>17.74</v>
       </c>
       <c r="P4">
-        <v>7.71</v>
+        <v>4.29</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="R4">
-        <v>17.72</v>
+        <v>1.49</v>
       </c>
       <c r="S4">
-        <v>16.3</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>17.86</v>
+        <v>0.61</v>
       </c>
       <c r="U4">
-        <v>32.45</v>
+        <v>4.72</v>
       </c>
       <c r="V4">
-        <v>15.66</v>
+        <v>28.62</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>26.43</v>
       </c>
       <c r="X4">
-        <v>28.57</v>
+        <v>13.68</v>
       </c>
       <c r="Y4">
-        <v>18.73</v>
+        <v>0.77</v>
       </c>
       <c r="Z4">
-        <v>33.3</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>19.4</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>14.98</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>29.22</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>14.39</v>
       </c>
       <c r="AE4">
-        <v>17.74</v>
+        <v>28</v>
       </c>
       <c r="AF4">
-        <v>4.29</v>
-      </c>
-      <c r="AG4">
-        <v>2.42</v>
-      </c>
-      <c r="AH4">
-        <v>1.49</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0.61</v>
-      </c>
-      <c r="AK4">
-        <v>4.72</v>
-      </c>
-      <c r="AL4">
-        <v>28.62</v>
-      </c>
-      <c r="AM4">
-        <v>26.43</v>
-      </c>
-      <c r="AN4">
-        <v>13.68</v>
-      </c>
-      <c r="AO4">
-        <v>0.77</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>14.98</v>
-      </c>
-      <c r="AS4">
-        <v>29.22</v>
-      </c>
-      <c r="AT4">
-        <v>14.39</v>
-      </c>
-      <c r="AU4">
-        <v>28</v>
-      </c>
-      <c r="AV4">
         <v>12.64</v>
       </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:32">
       <c r="A5" s="1">
         <v>35594</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>202109</v>
@@ -1134,10 +894,10 @@
         <v>5444900659</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I5">
         <v>4427039000</v>
@@ -1146,7 +906,7 @@
         <v>56.96969696969698</v>
       </c>
       <c r="K5" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L5">
         <v>78770277</v>
@@ -1158,117 +918,69 @@
         <v>171957</v>
       </c>
       <c r="O5">
-        <v>100</v>
+        <v>0.16</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>11.14</v>
       </c>
       <c r="R5">
-        <v>9.140000000000001</v>
+        <v>19.98</v>
       </c>
       <c r="S5">
-        <v>24.97</v>
+        <v>0.08</v>
       </c>
       <c r="T5">
-        <v>15.64</v>
+        <v>3.97</v>
       </c>
       <c r="U5">
-        <v>28.38</v>
+        <v>4.5</v>
       </c>
       <c r="V5">
-        <v>21.88</v>
+        <v>27.88</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>15.73</v>
       </c>
       <c r="X5">
-        <v>10.94</v>
+        <v>16.41</v>
       </c>
       <c r="Y5">
-        <v>12.94</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>47.82</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>24.33</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>3.97</v>
+        <v>10.47</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>66.08</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>9.17</v>
       </c>
       <c r="AE5">
-        <v>0.16</v>
+        <v>10.91</v>
       </c>
       <c r="AF5">
-        <v>0.16</v>
-      </c>
-      <c r="AG5">
-        <v>11.14</v>
-      </c>
-      <c r="AH5">
-        <v>19.98</v>
-      </c>
-      <c r="AI5">
-        <v>0.08</v>
-      </c>
-      <c r="AJ5">
-        <v>3.97</v>
-      </c>
-      <c r="AK5">
-        <v>4.5</v>
-      </c>
-      <c r="AL5">
-        <v>27.88</v>
-      </c>
-      <c r="AM5">
-        <v>15.73</v>
-      </c>
-      <c r="AN5">
-        <v>16.41</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>10.47</v>
-      </c>
-      <c r="AS5">
-        <v>66.08</v>
-      </c>
-      <c r="AT5">
-        <v>9.17</v>
-      </c>
-      <c r="AU5">
-        <v>10.91</v>
-      </c>
-      <c r="AV5">
         <v>3.37</v>
       </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:32">
       <c r="A6" s="1">
         <v>37320</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>202110</v>
@@ -1280,10 +992,10 @@
         <v>5444900659</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I6">
         <v>4427039000</v>
@@ -1292,7 +1004,7 @@
         <v>56.96969696969698</v>
       </c>
       <c r="K6" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L6">
         <v>126559549</v>
@@ -1304,117 +1016,69 @@
         <v>230483</v>
       </c>
       <c r="O6">
-        <v>96.59</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>3.41</v>
+        <v>0.31</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="R6">
-        <v>26.36</v>
+        <v>6.62</v>
       </c>
       <c r="S6">
-        <v>4.93</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="T6">
-        <v>15.34</v>
+        <v>3.1</v>
       </c>
       <c r="U6">
-        <v>38.06</v>
+        <v>3.49</v>
       </c>
       <c r="V6">
-        <v>15.31</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>43.26</v>
       </c>
       <c r="X6">
-        <v>23.37</v>
+        <v>15.97</v>
       </c>
       <c r="Y6">
-        <v>19.39</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>27.73</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>29.5</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>12.8</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>68.36</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>14.98</v>
       </c>
       <c r="AF6">
-        <v>0.31</v>
-      </c>
-      <c r="AG6">
-        <v>8.9</v>
-      </c>
-      <c r="AH6">
-        <v>6.62</v>
-      </c>
-      <c r="AI6">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="AJ6">
-        <v>3.1</v>
-      </c>
-      <c r="AK6">
-        <v>3.49</v>
-      </c>
-      <c r="AL6">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="AM6">
-        <v>43.26</v>
-      </c>
-      <c r="AN6">
-        <v>15.97</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>12.8</v>
-      </c>
-      <c r="AS6">
-        <v>68.36</v>
-      </c>
-      <c r="AT6">
-        <v>3.42</v>
-      </c>
-      <c r="AU6">
-        <v>14.98</v>
-      </c>
-      <c r="AV6">
         <v>0.44</v>
       </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:32">
       <c r="A7" s="1">
         <v>39051</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>202111</v>
@@ -1426,10 +1090,10 @@
         <v>5444900659</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I7">
         <v>4427039000</v>
@@ -1438,7 +1102,7 @@
         <v>56.96969696969698</v>
       </c>
       <c r="K7" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L7">
         <v>89057529</v>
@@ -1450,117 +1114,69 @@
         <v>176241</v>
       </c>
       <c r="O7">
-        <v>100</v>
+        <v>3.06</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>5.38</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>9.74</v>
       </c>
       <c r="R7">
-        <v>34.28</v>
+        <v>13.24</v>
       </c>
       <c r="S7">
-        <v>18.73</v>
+        <v>0.3</v>
       </c>
       <c r="T7">
-        <v>11.82</v>
+        <v>0.15</v>
       </c>
       <c r="U7">
-        <v>11.76</v>
+        <v>8.08</v>
       </c>
       <c r="V7">
-        <v>23.41</v>
+        <v>30.05</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>26.25</v>
       </c>
       <c r="X7">
-        <v>5.78</v>
+        <v>3.75</v>
       </c>
       <c r="Y7">
-        <v>24.71</v>
+        <v>0.15</v>
       </c>
       <c r="Z7">
-        <v>42.72</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>26.79</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>73.43000000000001</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>12.11</v>
       </c>
       <c r="AE7">
-        <v>3.06</v>
+        <v>7.17</v>
       </c>
       <c r="AF7">
-        <v>5.38</v>
-      </c>
-      <c r="AG7">
-        <v>9.74</v>
-      </c>
-      <c r="AH7">
-        <v>13.24</v>
-      </c>
-      <c r="AI7">
-        <v>0.3</v>
-      </c>
-      <c r="AJ7">
-        <v>0.15</v>
-      </c>
-      <c r="AK7">
-        <v>8.08</v>
-      </c>
-      <c r="AL7">
-        <v>30.05</v>
-      </c>
-      <c r="AM7">
-        <v>26.25</v>
-      </c>
-      <c r="AN7">
-        <v>3.75</v>
-      </c>
-      <c r="AO7">
-        <v>0.15</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>3.27</v>
-      </c>
-      <c r="AS7">
-        <v>73.43000000000001</v>
-      </c>
-      <c r="AT7">
-        <v>12.11</v>
-      </c>
-      <c r="AU7">
-        <v>7.17</v>
-      </c>
-      <c r="AV7">
         <v>3.87</v>
       </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:32">
       <c r="A8" s="1">
         <v>40780</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>202112</v>
@@ -1572,10 +1188,10 @@
         <v>5444900659</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I8">
         <v>4427039000</v>
@@ -1584,7 +1200,7 @@
         <v>56.96969696969698</v>
       </c>
       <c r="K8" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L8">
         <v>45969119</v>
@@ -1596,117 +1212,69 @@
         <v>76002</v>
       </c>
       <c r="O8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="R8">
-        <v>13.52</v>
+        <v>2.74</v>
       </c>
       <c r="S8">
-        <v>11.63</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="T8">
-        <v>25.31</v>
+        <v>1.4</v>
       </c>
       <c r="U8">
-        <v>30.12</v>
+        <v>1.75</v>
       </c>
       <c r="V8">
-        <v>19.43</v>
+        <v>31.06</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>39.38</v>
       </c>
       <c r="X8">
-        <v>13.2</v>
+        <v>6.56</v>
       </c>
       <c r="Y8">
-        <v>29.23</v>
+        <v>1.37</v>
       </c>
       <c r="Z8">
-        <v>35.51</v>
+        <v>0.13</v>
       </c>
       <c r="AA8">
-        <v>22.05</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>6.74</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>34.14</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>18.97</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>28.62</v>
       </c>
       <c r="AF8">
-        <v>4.33</v>
-      </c>
-      <c r="AG8">
-        <v>3.57</v>
-      </c>
-      <c r="AH8">
-        <v>2.74</v>
-      </c>
-      <c r="AI8">
-        <v>9.220000000000001</v>
-      </c>
-      <c r="AJ8">
-        <v>1.4</v>
-      </c>
-      <c r="AK8">
-        <v>1.75</v>
-      </c>
-      <c r="AL8">
-        <v>31.06</v>
-      </c>
-      <c r="AM8">
-        <v>39.38</v>
-      </c>
-      <c r="AN8">
-        <v>6.56</v>
-      </c>
-      <c r="AO8">
-        <v>1.37</v>
-      </c>
-      <c r="AP8">
-        <v>0.13</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>6.74</v>
-      </c>
-      <c r="AS8">
-        <v>34.14</v>
-      </c>
-      <c r="AT8">
-        <v>18.97</v>
-      </c>
-      <c r="AU8">
-        <v>28.62</v>
-      </c>
-      <c r="AV8">
         <v>10.03</v>
       </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:32">
       <c r="A9" s="1">
         <v>42494</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D9">
         <v>202201</v>
@@ -1718,10 +1286,10 @@
         <v>5444900659</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I9">
         <v>4427039000</v>
@@ -1730,7 +1298,7 @@
         <v>56.96969696969698</v>
       </c>
       <c r="K9" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L9">
         <v>64375295</v>
@@ -1742,117 +1310,69 @@
         <v>142141</v>
       </c>
       <c r="O9">
-        <v>100</v>
+        <v>4.02</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="R9">
-        <v>1.91</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="S9">
-        <v>41.45</v>
+        <v>2.66</v>
       </c>
       <c r="T9">
-        <v>29.98</v>
+        <v>0.59</v>
       </c>
       <c r="U9">
-        <v>11.81</v>
+        <v>3.58</v>
       </c>
       <c r="V9">
-        <v>14.86</v>
+        <v>4.82</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>38.43</v>
       </c>
       <c r="X9">
-        <v>4.11</v>
+        <v>28.84</v>
       </c>
       <c r="Y9">
-        <v>34.13</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="Z9">
-        <v>49.68</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>11.76</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.32</v>
+        <v>5.06</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>51.61</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>26.26</v>
       </c>
       <c r="AE9">
-        <v>4.02</v>
+        <v>1.36</v>
       </c>
       <c r="AF9">
-        <v>0.04</v>
-      </c>
-      <c r="AG9">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="AH9">
-        <v>8.640000000000001</v>
-      </c>
-      <c r="AI9">
-        <v>2.66</v>
-      </c>
-      <c r="AJ9">
-        <v>0.59</v>
-      </c>
-      <c r="AK9">
-        <v>3.58</v>
-      </c>
-      <c r="AL9">
-        <v>4.82</v>
-      </c>
-      <c r="AM9">
-        <v>38.43</v>
-      </c>
-      <c r="AN9">
-        <v>28.84</v>
-      </c>
-      <c r="AO9">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>5.06</v>
-      </c>
-      <c r="AS9">
-        <v>51.61</v>
-      </c>
-      <c r="AT9">
-        <v>26.26</v>
-      </c>
-      <c r="AU9">
-        <v>1.36</v>
-      </c>
-      <c r="AV9">
         <v>6.83</v>
       </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:32">
       <c r="A10" s="1">
         <v>44217</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>202202</v>
@@ -1864,10 +1384,10 @@
         <v>5444900659</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I10">
         <v>4427039000</v>
@@ -1876,7 +1396,7 @@
         <v>56.96969696969698</v>
       </c>
       <c r="K10" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L10">
         <v>45611519</v>
@@ -1888,117 +1408,69 @@
         <v>123678</v>
       </c>
       <c r="O10">
-        <v>100</v>
+        <v>0.24</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="R10">
-        <v>24.15</v>
+        <v>6.14</v>
       </c>
       <c r="S10">
-        <v>12.88</v>
+        <v>11.83</v>
       </c>
       <c r="T10">
-        <v>0.67</v>
+        <v>5.82</v>
       </c>
       <c r="U10">
-        <v>42.4</v>
+        <v>14.07</v>
       </c>
       <c r="V10">
-        <v>19.9</v>
+        <v>27.43</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="X10">
-        <v>14.07</v>
+        <v>24.98</v>
       </c>
       <c r="Y10">
-        <v>19.63</v>
+        <v>4.36</v>
       </c>
       <c r="Z10">
-        <v>38.54</v>
+        <v>0.02</v>
       </c>
       <c r="AA10">
-        <v>27.76</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>7.48</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>53.5</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>24.99</v>
       </c>
       <c r="AE10">
-        <v>0.24</v>
+        <v>1.34</v>
       </c>
       <c r="AF10">
-        <v>0.24</v>
-      </c>
-      <c r="AG10">
-        <v>0.46</v>
-      </c>
-      <c r="AH10">
-        <v>6.14</v>
-      </c>
-      <c r="AI10">
-        <v>11.83</v>
-      </c>
-      <c r="AJ10">
-        <v>5.82</v>
-      </c>
-      <c r="AK10">
-        <v>14.07</v>
-      </c>
-      <c r="AL10">
-        <v>27.43</v>
-      </c>
-      <c r="AM10">
-        <v>8.789999999999999</v>
-      </c>
-      <c r="AN10">
-        <v>24.98</v>
-      </c>
-      <c r="AO10">
-        <v>4.36</v>
-      </c>
-      <c r="AP10">
-        <v>0.02</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>7.48</v>
-      </c>
-      <c r="AS10">
-        <v>53.5</v>
-      </c>
-      <c r="AT10">
-        <v>24.99</v>
-      </c>
-      <c r="AU10">
-        <v>1.34</v>
-      </c>
-      <c r="AV10">
         <v>8.31</v>
       </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:32">
       <c r="A11" s="1">
         <v>45925</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D11">
         <v>202203</v>
@@ -2010,10 +1482,10 @@
         <v>5444900659</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I11">
         <v>4427039000</v>
@@ -2022,7 +1494,7 @@
         <v>56.96969696969698</v>
       </c>
       <c r="K11" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L11">
         <v>87802392</v>
@@ -2034,117 +1506,69 @@
         <v>195002</v>
       </c>
       <c r="O11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>12.6</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="R11">
-        <v>20.47</v>
+        <v>28.53</v>
       </c>
       <c r="S11">
-        <v>11.31</v>
+        <v>4.27</v>
       </c>
       <c r="T11">
-        <v>37.78</v>
+        <v>0.22</v>
       </c>
       <c r="U11">
-        <v>25.09</v>
+        <v>3.43</v>
       </c>
       <c r="V11">
-        <v>5.36</v>
+        <v>14.82</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="X11">
-        <v>15.32</v>
+        <v>26.86</v>
       </c>
       <c r="Y11">
-        <v>33.04</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>21.31</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>30.34</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>70.66</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>12.02</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="AF11">
-        <v>12.6</v>
-      </c>
-      <c r="AG11">
-        <v>0.31</v>
-      </c>
-      <c r="AH11">
-        <v>28.53</v>
-      </c>
-      <c r="AI11">
-        <v>4.27</v>
-      </c>
-      <c r="AJ11">
-        <v>0.22</v>
-      </c>
-      <c r="AK11">
-        <v>3.43</v>
-      </c>
-      <c r="AL11">
-        <v>14.82</v>
-      </c>
-      <c r="AM11">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="AN11">
-        <v>26.86</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-      <c r="AP11">
-        <v>0</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="AS11">
-        <v>70.66</v>
-      </c>
-      <c r="AT11">
-        <v>12.02</v>
-      </c>
-      <c r="AU11">
-        <v>2.76</v>
-      </c>
-      <c r="AV11">
         <v>5.5</v>
       </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:32">
       <c r="A12" s="1">
         <v>47646</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D12">
         <v>202204</v>
@@ -2156,10 +1580,10 @@
         <v>5444900659</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I12">
         <v>4427039000</v>
@@ -2168,7 +1592,7 @@
         <v>56.96969696969698</v>
       </c>
       <c r="K12" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L12">
         <v>53263895</v>
@@ -2180,117 +1604,69 @@
         <v>100382</v>
       </c>
       <c r="O12">
-        <v>100</v>
+        <v>3.02</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="R12">
-        <v>26.99</v>
+        <v>21.57</v>
       </c>
       <c r="S12">
-        <v>19.56</v>
+        <v>0.37</v>
       </c>
       <c r="T12">
-        <v>12.32</v>
+        <v>0.21</v>
       </c>
       <c r="U12">
-        <v>33.54</v>
+        <v>2.08</v>
       </c>
       <c r="V12">
-        <v>7.58</v>
+        <v>17.93</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>42.34</v>
       </c>
       <c r="X12">
-        <v>36.57</v>
+        <v>12.19</v>
       </c>
       <c r="Y12">
-        <v>12.67</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>45.53</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>5.24</v>
+        <v>0</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>36.13</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>31.05</v>
       </c>
       <c r="AE12">
-        <v>3.02</v>
+        <v>4.34</v>
       </c>
       <c r="AF12">
-        <v>0.08</v>
-      </c>
-      <c r="AG12">
-        <v>0.23</v>
-      </c>
-      <c r="AH12">
-        <v>21.57</v>
-      </c>
-      <c r="AI12">
-        <v>0.37</v>
-      </c>
-      <c r="AJ12">
-        <v>0.21</v>
-      </c>
-      <c r="AK12">
-        <v>2.08</v>
-      </c>
-      <c r="AL12">
-        <v>17.93</v>
-      </c>
-      <c r="AM12">
-        <v>42.34</v>
-      </c>
-      <c r="AN12">
-        <v>12.19</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <v>0</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>1.23</v>
-      </c>
-      <c r="AS12">
-        <v>36.13</v>
-      </c>
-      <c r="AT12">
-        <v>31.05</v>
-      </c>
-      <c r="AU12">
-        <v>4.34</v>
-      </c>
-      <c r="AV12">
         <v>27.24</v>
       </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:32">
       <c r="A13" s="1">
         <v>49372</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D13">
         <v>202205</v>
@@ -2302,10 +1678,10 @@
         <v>5444900659</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I13">
         <v>4427039000</v>
@@ -2314,7 +1690,7 @@
         <v>56.96969696969698</v>
       </c>
       <c r="K13" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L13">
         <v>55744424</v>
@@ -2326,105 +1702,57 @@
         <v>137659</v>
       </c>
       <c r="O13">
-        <v>100</v>
+        <v>0.19</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="R13">
-        <v>56.83</v>
+        <v>3.07</v>
       </c>
       <c r="S13">
-        <v>27.79</v>
+        <v>2.89</v>
       </c>
       <c r="T13">
-        <v>10.87</v>
+        <v>0.42</v>
       </c>
       <c r="U13">
-        <v>1.86</v>
+        <v>10.56</v>
       </c>
       <c r="V13">
-        <v>2.65</v>
+        <v>38.16</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>6.34</v>
       </c>
       <c r="X13">
-        <v>2.17</v>
+        <v>28.99</v>
       </c>
       <c r="Y13">
-        <v>58.72</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>26.06</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>13.05</v>
+        <v>0</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>28.87</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>41.39</v>
       </c>
       <c r="AE13">
-        <v>0.19</v>
+        <v>26.76</v>
       </c>
       <c r="AF13">
-        <v>0.19</v>
-      </c>
-      <c r="AG13">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AH13">
-        <v>3.07</v>
-      </c>
-      <c r="AI13">
-        <v>2.89</v>
-      </c>
-      <c r="AJ13">
-        <v>0.42</v>
-      </c>
-      <c r="AK13">
-        <v>10.56</v>
-      </c>
-      <c r="AL13">
-        <v>38.16</v>
-      </c>
-      <c r="AM13">
-        <v>6.34</v>
-      </c>
-      <c r="AN13">
-        <v>28.99</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>0</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>1.49</v>
-      </c>
-      <c r="AS13">
-        <v>28.87</v>
-      </c>
-      <c r="AT13">
-        <v>41.39</v>
-      </c>
-      <c r="AU13">
-        <v>26.76</v>
-      </c>
-      <c r="AV13">
         <v>1.48</v>
       </c>
     </row>
